--- a/DTW/data/10person/skip10.xlsx
+++ b/DTW/data/10person/skip10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\10person\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\10person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88CB76-317E-4382-A064-EAF9A14B8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BAB18A-F281-42F5-AE52-232A000B3FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="165" windowWidth="7995" windowHeight="12900" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="330" yWindow="250" windowWidth="14920" windowHeight="18060" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="77">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,162 @@
   </si>
   <si>
     <t>9,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,10,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,11,10,13,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,18,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,12,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,22,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,28,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,12,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,3,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,4,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,16,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,9,1,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,16 +848,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I468" sqref="I468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -715,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
@@ -725,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -735,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
@@ -745,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
@@ -755,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
@@ -765,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
@@ -775,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
@@ -783,7 +939,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
@@ -793,7 +949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
@@ -803,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
@@ -813,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>3</v>
@@ -823,7 +979,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
@@ -831,7 +987,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -839,7 +995,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
@@ -847,7 +1003,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
@@ -855,7 +1011,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
@@ -863,7 +1019,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
@@ -871,7 +1027,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
@@ -879,7 +1035,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
@@ -887,7 +1043,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
@@ -895,7 +1051,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="6"/>
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
@@ -903,7 +1059,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
@@ -915,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
@@ -925,7 +1081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
@@ -935,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
@@ -945,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
@@ -955,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
@@ -965,7 +1121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
@@ -973,7 +1129,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
@@ -981,7 +1137,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
@@ -991,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
@@ -1001,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
@@ -1011,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>5</v>
@@ -1021,7 +1177,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
@@ -1029,7 +1185,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
@@ -1037,7 +1193,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
@@ -1045,7 +1201,7 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
@@ -1053,7 +1209,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
@@ -1061,7 +1217,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
@@ -1069,7 +1225,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="1" t="s">
@@ -1077,7 +1233,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
@@ -1085,7 +1241,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="1" t="s">
@@ -1093,7 +1249,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="6"/>
       <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
@@ -1101,7 +1257,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -1115,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
@@ -1125,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="1" t="s">
@@ -1135,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="1" t="s">
@@ -1145,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="1" t="s">
@@ -1155,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
@@ -1165,7 +1321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="1" t="s">
@@ -1173,7 +1329,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="1" t="s">
@@ -1181,7 +1337,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="1" t="s">
@@ -1191,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="1" t="s">
@@ -1199,7 +1355,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="1" t="s">
@@ -1209,7 +1365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="6"/>
       <c r="B56" s="7" t="s">
         <v>3</v>
@@ -1219,7 +1375,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
@@ -1227,7 +1383,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
@@ -1235,7 +1391,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
@@ -1243,7 +1399,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
@@ -1251,7 +1407,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
@@ -1259,7 +1415,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="1" t="s">
@@ -1267,7 +1423,7 @@
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="1" t="s">
@@ -1275,7 +1431,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="1" t="s">
@@ -1283,7 +1439,7 @@
       </c>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="1" t="s">
@@ -1291,7 +1447,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="6"/>
       <c r="B66" s="9"/>
       <c r="C66" s="1" t="s">
@@ -1299,7 +1455,7 @@
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
         <v>4</v>
@@ -1311,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="1" t="s">
@@ -1321,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="1" t="s">
@@ -1331,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="1" t="s">
@@ -1341,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
@@ -1351,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
@@ -1361,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="1" t="s">
@@ -1369,7 +1525,7 @@
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="1" t="s">
@@ -1377,7 +1533,7 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="1" t="s">
@@ -1385,7 +1541,7 @@
       </c>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="1" t="s">
@@ -1395,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="6"/>
       <c r="B77" s="9"/>
       <c r="C77" s="1" t="s">
@@ -1405,7 +1561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
         <v>5</v>
@@ -1415,7 +1571,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="1" t="s">
@@ -1423,7 +1579,7 @@
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="1" t="s">
@@ -1431,7 +1587,7 @@
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
@@ -1439,7 +1595,7 @@
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="6"/>
       <c r="B82" s="8"/>
       <c r="C82" s="1" t="s">
@@ -1447,7 +1603,7 @@
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="6"/>
       <c r="B83" s="8"/>
       <c r="C83" s="1" t="s">
@@ -1455,7 +1611,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="6"/>
       <c r="B84" s="8"/>
       <c r="C84" s="1" t="s">
@@ -1463,7 +1619,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="6"/>
       <c r="B85" s="8"/>
       <c r="C85" s="1" t="s">
@@ -1471,7 +1627,7 @@
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="6"/>
       <c r="B86" s="8"/>
       <c r="C86" s="1" t="s">
@@ -1479,7 +1635,7 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="6"/>
       <c r="B87" s="8"/>
       <c r="C87" s="1" t="s">
@@ -1487,7 +1643,7 @@
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="6"/>
       <c r="B88" s="9"/>
       <c r="C88" s="1" t="s">
@@ -1495,7 +1651,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="5">
         <v>3</v>
       </c>
@@ -1509,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="6"/>
       <c r="B90" s="8"/>
       <c r="C90" s="1" t="s">
@@ -1519,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="6"/>
       <c r="B91" s="8"/>
       <c r="C91" s="1" t="s">
@@ -1529,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="6"/>
       <c r="B92" s="8"/>
       <c r="C92" s="1" t="s">
@@ -1539,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="6"/>
       <c r="B93" s="8"/>
       <c r="C93" s="1" t="s">
@@ -1549,7 +1705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="6"/>
       <c r="B94" s="8"/>
       <c r="C94" s="1" t="s">
@@ -1559,7 +1715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="6"/>
       <c r="B95" s="8"/>
       <c r="C95" s="1" t="s">
@@ -1569,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="6"/>
       <c r="B96" s="8"/>
       <c r="C96" s="1" t="s">
@@ -1579,7 +1735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="6"/>
       <c r="B97" s="8"/>
       <c r="C97" s="1" t="s">
@@ -1589,7 +1745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="6"/>
       <c r="B98" s="8"/>
       <c r="C98" s="1" t="s">
@@ -1599,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="6"/>
       <c r="B99" s="9"/>
       <c r="C99" s="1" t="s">
@@ -1607,7 +1763,7 @@
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
         <v>3</v>
@@ -1617,7 +1773,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="6"/>
       <c r="B101" s="8"/>
       <c r="C101" s="1" t="s">
@@ -1625,7 +1781,7 @@
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="6"/>
       <c r="B102" s="8"/>
       <c r="C102" s="1" t="s">
@@ -1633,7 +1789,7 @@
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="6"/>
       <c r="B103" s="8"/>
       <c r="C103" s="1" t="s">
@@ -1641,7 +1797,7 @@
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="6"/>
       <c r="B104" s="8"/>
       <c r="C104" s="1" t="s">
@@ -1649,7 +1805,7 @@
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="6"/>
       <c r="B105" s="8"/>
       <c r="C105" s="1" t="s">
@@ -1657,7 +1813,7 @@
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="6"/>
       <c r="B106" s="8"/>
       <c r="C106" s="1" t="s">
@@ -1665,7 +1821,7 @@
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="6"/>
       <c r="B107" s="8"/>
       <c r="C107" s="1" t="s">
@@ -1673,7 +1829,7 @@
       </c>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="6"/>
       <c r="B108" s="8"/>
       <c r="C108" s="1" t="s">
@@ -1681,7 +1837,7 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="6"/>
       <c r="B109" s="8"/>
       <c r="C109" s="1" t="s">
@@ -1689,7 +1845,7 @@
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="6"/>
       <c r="B110" s="9"/>
       <c r="C110" s="1" t="s">
@@ -1697,7 +1853,7 @@
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
         <v>4</v>
@@ -1709,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="6"/>
       <c r="B112" s="8"/>
       <c r="C112" s="1" t="s">
@@ -1719,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="6"/>
       <c r="B113" s="8"/>
       <c r="C113" s="1" t="s">
@@ -1729,7 +1885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="6"/>
       <c r="B114" s="8"/>
       <c r="C114" s="1" t="s">
@@ -1739,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="6"/>
       <c r="B115" s="8"/>
       <c r="C115" s="1" t="s">
@@ -1749,7 +1905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="6"/>
       <c r="B116" s="8"/>
       <c r="C116" s="1" t="s">
@@ -1759,7 +1915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="6"/>
       <c r="B117" s="8"/>
       <c r="C117" s="1" t="s">
@@ -1769,7 +1925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="6"/>
       <c r="B118" s="8"/>
       <c r="C118" s="1" t="s">
@@ -1777,7 +1933,7 @@
       </c>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="6"/>
       <c r="B119" s="8"/>
       <c r="C119" s="1" t="s">
@@ -1785,7 +1941,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="6"/>
       <c r="B120" s="8"/>
       <c r="C120" s="1" t="s">
@@ -1795,7 +1951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="6"/>
       <c r="B121" s="9"/>
       <c r="C121" s="1" t="s">
@@ -1805,7 +1961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
         <v>5</v>
@@ -1815,7 +1971,7 @@
       </c>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="6"/>
       <c r="B123" s="8"/>
       <c r="C123" s="1" t="s">
@@ -1823,7 +1979,7 @@
       </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="6"/>
       <c r="B124" s="8"/>
       <c r="C124" s="1" t="s">
@@ -1831,7 +1987,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="6"/>
       <c r="B125" s="8"/>
       <c r="C125" s="1" t="s">
@@ -1839,7 +1995,7 @@
       </c>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="6"/>
       <c r="B126" s="8"/>
       <c r="C126" s="1" t="s">
@@ -1847,7 +2003,7 @@
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="6"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1" t="s">
@@ -1855,7 +2011,7 @@
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="6"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1" t="s">
@@ -1863,7 +2019,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="6"/>
       <c r="B129" s="8"/>
       <c r="C129" s="1" t="s">
@@ -1871,7 +2027,7 @@
       </c>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="6"/>
       <c r="B130" s="8"/>
       <c r="C130" s="1" t="s">
@@ -1879,7 +2035,7 @@
       </c>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="6"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1" t="s">
@@ -1887,7 +2043,7 @@
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="6"/>
       <c r="B132" s="9"/>
       <c r="C132" s="1" t="s">
@@ -1895,7 +2051,7 @@
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="5">
         <v>4</v>
       </c>
@@ -1909,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="6"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1" t="s">
@@ -1919,7 +2075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="6"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1" t="s">
@@ -1929,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="6"/>
       <c r="B136" s="8"/>
       <c r="C136" s="1" t="s">
@@ -1939,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="6"/>
       <c r="B137" s="8"/>
       <c r="C137" s="1" t="s">
@@ -1949,7 +2105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="6"/>
       <c r="B138" s="8"/>
       <c r="C138" s="1" t="s">
@@ -1959,7 +2115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="6"/>
       <c r="B139" s="8"/>
       <c r="C139" s="1" t="s">
@@ -1969,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="6"/>
       <c r="B140" s="8"/>
       <c r="C140" s="1" t="s">
@@ -1979,7 +2135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="6"/>
       <c r="B141" s="8"/>
       <c r="C141" s="1" t="s">
@@ -1989,7 +2145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="6"/>
       <c r="B142" s="8"/>
       <c r="C142" s="1" t="s">
@@ -1999,7 +2155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A143" s="6"/>
       <c r="B143" s="9"/>
       <c r="C143" s="1" t="s">
@@ -2007,7 +2163,7 @@
       </c>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="6"/>
       <c r="B144" s="7" t="s">
         <v>3</v>
@@ -2017,7 +2173,7 @@
       </c>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="6"/>
       <c r="B145" s="8"/>
       <c r="C145" s="1" t="s">
@@ -2025,7 +2181,7 @@
       </c>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="6"/>
       <c r="B146" s="8"/>
       <c r="C146" s="1" t="s">
@@ -2033,7 +2189,7 @@
       </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="6"/>
       <c r="B147" s="8"/>
       <c r="C147" s="1" t="s">
@@ -2041,7 +2197,7 @@
       </c>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="6"/>
       <c r="B148" s="8"/>
       <c r="C148" s="1" t="s">
@@ -2049,7 +2205,7 @@
       </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="6"/>
       <c r="B149" s="8"/>
       <c r="C149" s="1" t="s">
@@ -2057,7 +2213,7 @@
       </c>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="6"/>
       <c r="B150" s="8"/>
       <c r="C150" s="1" t="s">
@@ -2065,7 +2221,7 @@
       </c>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="6"/>
       <c r="B151" s="8"/>
       <c r="C151" s="1" t="s">
@@ -2073,7 +2229,7 @@
       </c>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="6"/>
       <c r="B152" s="8"/>
       <c r="C152" s="1" t="s">
@@ -2081,7 +2237,7 @@
       </c>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="6"/>
       <c r="B153" s="8"/>
       <c r="C153" s="1" t="s">
@@ -2089,7 +2245,7 @@
       </c>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A154" s="6"/>
       <c r="B154" s="9"/>
       <c r="C154" s="1" t="s">
@@ -2097,7 +2253,7 @@
       </c>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
         <v>4</v>
@@ -2109,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="6"/>
       <c r="B156" s="8"/>
       <c r="C156" s="1" t="s">
@@ -2119,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="6"/>
       <c r="B157" s="8"/>
       <c r="C157" s="1" t="s">
@@ -2129,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="6"/>
       <c r="B158" s="8"/>
       <c r="C158" s="1" t="s">
@@ -2139,7 +2295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="6"/>
       <c r="B159" s="8"/>
       <c r="C159" s="1" t="s">
@@ -2149,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="6"/>
       <c r="B160" s="8"/>
       <c r="C160" s="1" t="s">
@@ -2159,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="6"/>
       <c r="B161" s="8"/>
       <c r="C161" s="1" t="s">
@@ -2167,7 +2323,7 @@
       </c>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="6"/>
       <c r="B162" s="8"/>
       <c r="C162" s="1" t="s">
@@ -2175,7 +2331,7 @@
       </c>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="6"/>
       <c r="B163" s="8"/>
       <c r="C163" s="1" t="s">
@@ -2183,7 +2339,7 @@
       </c>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="6"/>
       <c r="B164" s="8"/>
       <c r="C164" s="1" t="s">
@@ -2193,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A165" s="6"/>
       <c r="B165" s="9"/>
       <c r="C165" s="1" t="s">
@@ -2203,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="6"/>
       <c r="B166" s="7" t="s">
         <v>5</v>
@@ -2213,7 +2369,7 @@
       </c>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="6"/>
       <c r="B167" s="8"/>
       <c r="C167" s="1" t="s">
@@ -2221,7 +2377,7 @@
       </c>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="6"/>
       <c r="B168" s="8"/>
       <c r="C168" s="1" t="s">
@@ -2229,7 +2385,7 @@
       </c>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="6"/>
       <c r="B169" s="8"/>
       <c r="C169" s="1" t="s">
@@ -2237,7 +2393,7 @@
       </c>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="6"/>
       <c r="B170" s="8"/>
       <c r="C170" s="1" t="s">
@@ -2245,7 +2401,7 @@
       </c>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="6"/>
       <c r="B171" s="8"/>
       <c r="C171" s="1" t="s">
@@ -2253,7 +2409,7 @@
       </c>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="6"/>
       <c r="B172" s="8"/>
       <c r="C172" s="1" t="s">
@@ -2261,7 +2417,7 @@
       </c>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="6"/>
       <c r="B173" s="8"/>
       <c r="C173" s="1" t="s">
@@ -2269,7 +2425,7 @@
       </c>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="6"/>
       <c r="B174" s="8"/>
       <c r="C174" s="1" t="s">
@@ -2277,7 +2433,7 @@
       </c>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="6"/>
       <c r="B175" s="8"/>
       <c r="C175" s="1" t="s">
@@ -2285,7 +2441,7 @@
       </c>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="6"/>
       <c r="B176" s="9"/>
       <c r="C176" s="1" t="s">
@@ -2293,7 +2449,7 @@
       </c>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="5">
         <v>5</v>
       </c>
@@ -2307,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="6"/>
       <c r="B178" s="8"/>
       <c r="C178" s="1" t="s">
@@ -2317,7 +2473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="6"/>
       <c r="B179" s="8"/>
       <c r="C179" s="1" t="s">
@@ -2327,7 +2483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="6"/>
       <c r="B180" s="8"/>
       <c r="C180" s="1" t="s">
@@ -2337,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="6"/>
       <c r="B181" s="8"/>
       <c r="C181" s="1" t="s">
@@ -2347,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="1" t="s">
@@ -2357,7 +2513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="1" t="s">
@@ -2367,7 +2523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="1" t="s">
@@ -2375,7 +2531,7 @@
       </c>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="1" t="s">
@@ -2385,7 +2541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="1" t="s">
@@ -2395,7 +2551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A187" s="6"/>
       <c r="B187" s="9"/>
       <c r="C187" s="1" t="s">
@@ -2405,7 +2561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="6"/>
       <c r="B188" s="7" t="s">
         <v>3</v>
@@ -2415,7 +2571,7 @@
       </c>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="1" t="s">
@@ -2423,7 +2579,7 @@
       </c>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="1" t="s">
@@ -2431,7 +2587,7 @@
       </c>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="1" t="s">
@@ -2439,7 +2595,7 @@
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="1" t="s">
@@ -2447,7 +2603,7 @@
       </c>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="1" t="s">
@@ -2455,7 +2611,7 @@
       </c>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="6"/>
       <c r="B194" s="8"/>
       <c r="C194" s="1" t="s">
@@ -2463,7 +2619,7 @@
       </c>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="6"/>
       <c r="B195" s="8"/>
       <c r="C195" s="1" t="s">
@@ -2471,7 +2627,7 @@
       </c>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="6"/>
       <c r="B196" s="8"/>
       <c r="C196" s="1" t="s">
@@ -2479,7 +2635,7 @@
       </c>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="6"/>
       <c r="B197" s="8"/>
       <c r="C197" s="1" t="s">
@@ -2487,7 +2643,7 @@
       </c>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A198" s="6"/>
       <c r="B198" s="9"/>
       <c r="C198" s="1" t="s">
@@ -2495,7 +2651,7 @@
       </c>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="6"/>
       <c r="B199" s="7" t="s">
         <v>4</v>
@@ -2507,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="6"/>
       <c r="B200" s="8"/>
       <c r="C200" s="1" t="s">
@@ -2517,7 +2673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="1" t="s">
@@ -2527,7 +2683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="1" t="s">
@@ -2537,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="1" t="s">
@@ -2547,7 +2703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="1" t="s">
@@ -2557,7 +2713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="1" t="s">
@@ -2567,7 +2723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="1" t="s">
@@ -2575,7 +2731,7 @@
       </c>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="1" t="s">
@@ -2583,7 +2739,7 @@
       </c>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="1" t="s">
@@ -2593,7 +2749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A209" s="6"/>
       <c r="B209" s="9"/>
       <c r="C209" s="1" t="s">
@@ -2603,7 +2759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="6"/>
       <c r="B210" s="7" t="s">
         <v>5</v>
@@ -2613,7 +2769,7 @@
       </c>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="1" t="s">
@@ -2621,7 +2777,7 @@
       </c>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="1" t="s">
@@ -2629,7 +2785,7 @@
       </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="1" t="s">
@@ -2637,7 +2793,7 @@
       </c>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="6"/>
       <c r="B214" s="8"/>
       <c r="C214" s="1" t="s">
@@ -2645,7 +2801,7 @@
       </c>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="6"/>
       <c r="B215" s="8"/>
       <c r="C215" s="1" t="s">
@@ -2653,7 +2809,7 @@
       </c>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="6"/>
       <c r="B216" s="8"/>
       <c r="C216" s="1" t="s">
@@ -2661,7 +2817,7 @@
       </c>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="6"/>
       <c r="B217" s="8"/>
       <c r="C217" s="1" t="s">
@@ -2669,7 +2825,7 @@
       </c>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="6"/>
       <c r="B218" s="8"/>
       <c r="C218" s="1" t="s">
@@ -2677,7 +2833,7 @@
       </c>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="6"/>
       <c r="B219" s="8"/>
       <c r="C219" s="1" t="s">
@@ -2685,7 +2841,7 @@
       </c>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A220" s="6"/>
       <c r="B220" s="9"/>
       <c r="C220" s="1" t="s">
@@ -2693,7 +2849,7 @@
       </c>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="5">
         <v>6</v>
       </c>
@@ -2703,41 +2859,51 @@
       <c r="C221" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="6"/>
       <c r="B222" s="8"/>
       <c r="C222" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D222" s="4"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D222" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="6"/>
       <c r="B223" s="8"/>
       <c r="C223" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="4"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D223" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="6"/>
       <c r="B224" s="8"/>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D224" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="6"/>
       <c r="B225" s="8"/>
       <c r="C225" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D225" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="6"/>
       <c r="B226" s="8"/>
       <c r="C226" s="1" t="s">
@@ -2745,15 +2911,17 @@
       </c>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
       <c r="C227" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D227" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
       <c r="C228" s="1" t="s">
@@ -2761,7 +2929,7 @@
       </c>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
       <c r="C229" s="1" t="s">
@@ -2769,23 +2937,27 @@
       </c>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
       <c r="C230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D230" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A231" s="6"/>
       <c r="B231" s="9"/>
       <c r="C231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D231" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="6"/>
       <c r="B232" s="7" t="s">
         <v>3</v>
@@ -2795,7 +2967,7 @@
       </c>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="6"/>
       <c r="B233" s="8"/>
       <c r="C233" s="1" t="s">
@@ -2803,7 +2975,7 @@
       </c>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="1" t="s">
@@ -2811,7 +2983,7 @@
       </c>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="1" t="s">
@@ -2819,7 +2991,7 @@
       </c>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="1" t="s">
@@ -2827,7 +2999,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="1" t="s">
@@ -2835,7 +3007,7 @@
       </c>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="1" t="s">
@@ -2843,7 +3015,7 @@
       </c>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="1" t="s">
@@ -2851,7 +3023,7 @@
       </c>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="1" t="s">
@@ -2859,7 +3031,7 @@
       </c>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="1" t="s">
@@ -2867,7 +3039,7 @@
       </c>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A242" s="6"/>
       <c r="B242" s="9"/>
       <c r="C242" s="1" t="s">
@@ -2875,7 +3047,7 @@
       </c>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="6"/>
       <c r="B243" s="7" t="s">
         <v>4</v>
@@ -2883,65 +3055,81 @@
       <c r="C243" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D243" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D244" s="4"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D244" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D245" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D246" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D247" s="4"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D247" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D248" s="4"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D248" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D249" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D250" s="4"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D250" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="1" t="s">
@@ -2949,23 +3137,27 @@
       </c>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="4"/>
-    </row>
-    <row r="253" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D252" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A253" s="6"/>
       <c r="B253" s="9"/>
       <c r="C253" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D253" s="4"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D253" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="6"/>
       <c r="B254" s="7" t="s">
         <v>5</v>
@@ -2975,7 +3167,7 @@
       </c>
       <c r="D254" s="3"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="1" t="s">
@@ -2983,7 +3175,7 @@
       </c>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="1" t="s">
@@ -2991,7 +3183,7 @@
       </c>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="1" t="s">
@@ -2999,7 +3191,7 @@
       </c>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="1" t="s">
@@ -3007,7 +3199,7 @@
       </c>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="1" t="s">
@@ -3015,7 +3207,7 @@
       </c>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="1" t="s">
@@ -3023,7 +3215,7 @@
       </c>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="1" t="s">
@@ -3031,7 +3223,7 @@
       </c>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="1" t="s">
@@ -3039,7 +3231,7 @@
       </c>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="1" t="s">
@@ -3047,7 +3239,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A264" s="6"/>
       <c r="B264" s="9"/>
       <c r="C264" s="1" t="s">
@@ -3055,7 +3247,7 @@
       </c>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="5">
         <v>7</v>
       </c>
@@ -3065,81 +3257,101 @@
       <c r="C265" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D265" s="3"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D265" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="6"/>
       <c r="B266" s="8"/>
       <c r="C266" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D266" s="4"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D266" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="6"/>
       <c r="B267" s="8"/>
       <c r="C267" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="4"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D267" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="6"/>
       <c r="B268" s="8"/>
       <c r="C268" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="4"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="6"/>
       <c r="B269" s="8"/>
       <c r="C269" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D269" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="6"/>
       <c r="B270" s="8"/>
       <c r="C270" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D270" s="4"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D270" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="6"/>
       <c r="B271" s="8"/>
       <c r="C271" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D271" s="4"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D271" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="6"/>
       <c r="B272" s="8"/>
       <c r="C272" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D272" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="6"/>
       <c r="B273" s="8"/>
       <c r="C273" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D273" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="6"/>
       <c r="B274" s="8"/>
       <c r="C274" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D274" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A275" s="6"/>
       <c r="B275" s="9"/>
       <c r="C275" s="1" t="s">
@@ -3147,7 +3359,7 @@
       </c>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="6"/>
       <c r="B276" s="7" t="s">
         <v>3</v>
@@ -3157,7 +3369,7 @@
       </c>
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="6"/>
       <c r="B277" s="8"/>
       <c r="C277" s="1" t="s">
@@ -3165,7 +3377,7 @@
       </c>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="6"/>
       <c r="B278" s="8"/>
       <c r="C278" s="1" t="s">
@@ -3173,7 +3385,7 @@
       </c>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="1" t="s">
@@ -3181,7 +3393,7 @@
       </c>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="1" t="s">
@@ -3189,7 +3401,7 @@
       </c>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="1" t="s">
@@ -3197,7 +3409,7 @@
       </c>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="1" t="s">
@@ -3205,7 +3417,7 @@
       </c>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="1" t="s">
@@ -3213,7 +3425,7 @@
       </c>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="1" t="s">
@@ -3221,7 +3433,7 @@
       </c>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="1" t="s">
@@ -3229,7 +3441,7 @@
       </c>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A286" s="6"/>
       <c r="B286" s="9"/>
       <c r="C286" s="1" t="s">
@@ -3237,7 +3449,7 @@
       </c>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="6"/>
       <c r="B287" s="7" t="s">
         <v>4</v>
@@ -3245,57 +3457,71 @@
       <c r="C287" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D287" s="3"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D287" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D288" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D290" s="4"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D290" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="4"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D291" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D292" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D293" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="1" t="s">
@@ -3303,7 +3529,7 @@
       </c>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="6"/>
       <c r="B295" s="8"/>
       <c r="C295" s="1" t="s">
@@ -3311,23 +3537,27 @@
       </c>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="6"/>
       <c r="B296" s="8"/>
       <c r="C296" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D296" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A297" s="6"/>
       <c r="B297" s="9"/>
       <c r="C297" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D297" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="6"/>
       <c r="B298" s="7" t="s">
         <v>5</v>
@@ -3337,7 +3567,7 @@
       </c>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="6"/>
       <c r="B299" s="8"/>
       <c r="C299" s="1" t="s">
@@ -3345,7 +3575,7 @@
       </c>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="6"/>
       <c r="B300" s="8"/>
       <c r="C300" s="1" t="s">
@@ -3353,7 +3583,7 @@
       </c>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="6"/>
       <c r="B301" s="8"/>
       <c r="C301" s="1" t="s">
@@ -3361,7 +3591,7 @@
       </c>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="6"/>
       <c r="B302" s="8"/>
       <c r="C302" s="1" t="s">
@@ -3369,7 +3599,7 @@
       </c>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="6"/>
       <c r="B303" s="8"/>
       <c r="C303" s="1" t="s">
@@ -3377,7 +3607,7 @@
       </c>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="6"/>
       <c r="B304" s="8"/>
       <c r="C304" s="1" t="s">
@@ -3385,7 +3615,7 @@
       </c>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="6"/>
       <c r="B305" s="8"/>
       <c r="C305" s="1" t="s">
@@ -3393,7 +3623,7 @@
       </c>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="6"/>
       <c r="B306" s="8"/>
       <c r="C306" s="1" t="s">
@@ -3401,7 +3631,7 @@
       </c>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="6"/>
       <c r="B307" s="8"/>
       <c r="C307" s="1" t="s">
@@ -3409,7 +3639,7 @@
       </c>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A308" s="6"/>
       <c r="B308" s="9"/>
       <c r="C308" s="1" t="s">
@@ -3417,7 +3647,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="5">
         <v>8</v>
       </c>
@@ -3427,49 +3657,61 @@
       <c r="C309" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D309" s="3"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D309" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="6"/>
       <c r="B310" s="8"/>
       <c r="C310" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D310" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="6"/>
       <c r="B311" s="8"/>
       <c r="C311" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D311" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="6"/>
       <c r="B312" s="8"/>
       <c r="C312" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D312" s="4"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D312" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="6"/>
       <c r="B313" s="8"/>
       <c r="C313" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D313" s="4"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D313" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="6"/>
       <c r="B314" s="8"/>
       <c r="C314" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D314" s="4"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D314" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="6"/>
       <c r="B315" s="8"/>
       <c r="C315" s="1" t="s">
@@ -3477,15 +3719,17 @@
       </c>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="6"/>
       <c r="B316" s="8"/>
       <c r="C316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D316" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="6"/>
       <c r="B317" s="8"/>
       <c r="C317" s="1" t="s">
@@ -3493,23 +3737,27 @@
       </c>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="6"/>
       <c r="B318" s="8"/>
       <c r="C318" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D318" s="4"/>
-    </row>
-    <row r="319" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D318" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A319" s="6"/>
       <c r="B319" s="9"/>
       <c r="C319" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D319" s="4"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D319" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="6"/>
       <c r="B320" s="7" t="s">
         <v>3</v>
@@ -3519,7 +3767,7 @@
       </c>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="6"/>
       <c r="B321" s="8"/>
       <c r="C321" s="1" t="s">
@@ -3527,7 +3775,7 @@
       </c>
       <c r="D321" s="4"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="6"/>
       <c r="B322" s="8"/>
       <c r="C322" s="1" t="s">
@@ -3535,7 +3783,7 @@
       </c>
       <c r="D322" s="4"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="6"/>
       <c r="B323" s="8"/>
       <c r="C323" s="1" t="s">
@@ -3543,7 +3791,7 @@
       </c>
       <c r="D323" s="4"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="6"/>
       <c r="B324" s="8"/>
       <c r="C324" s="1" t="s">
@@ -3551,7 +3799,7 @@
       </c>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="6"/>
       <c r="B325" s="8"/>
       <c r="C325" s="1" t="s">
@@ -3559,7 +3807,7 @@
       </c>
       <c r="D325" s="4"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="6"/>
       <c r="B326" s="8"/>
       <c r="C326" s="1" t="s">
@@ -3567,7 +3815,7 @@
       </c>
       <c r="D326" s="4"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="6"/>
       <c r="B327" s="8"/>
       <c r="C327" s="1" t="s">
@@ -3575,7 +3823,7 @@
       </c>
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="6"/>
       <c r="B328" s="8"/>
       <c r="C328" s="1" t="s">
@@ -3583,7 +3831,7 @@
       </c>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="6"/>
       <c r="B329" s="8"/>
       <c r="C329" s="1" t="s">
@@ -3591,7 +3839,7 @@
       </c>
       <c r="D329" s="4"/>
     </row>
-    <row r="330" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A330" s="6"/>
       <c r="B330" s="9"/>
       <c r="C330" s="1" t="s">
@@ -3599,7 +3847,7 @@
       </c>
       <c r="D330" s="4"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="6"/>
       <c r="B331" s="7" t="s">
         <v>4</v>
@@ -3607,57 +3855,71 @@
       <c r="C331" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D331" s="3"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D331" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="6"/>
       <c r="B332" s="8"/>
       <c r="C332" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D332" s="4"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D332" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="6"/>
       <c r="B333" s="8"/>
       <c r="C333" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D333" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="6"/>
       <c r="B334" s="8"/>
       <c r="C334" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D334" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="6"/>
       <c r="B335" s="8"/>
       <c r="C335" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D335" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="6"/>
       <c r="B336" s="8"/>
       <c r="C336" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D336" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="6"/>
       <c r="B337" s="8"/>
       <c r="C337" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D337" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="6"/>
       <c r="B338" s="8"/>
       <c r="C338" s="1" t="s">
@@ -3665,7 +3927,7 @@
       </c>
       <c r="D338" s="4"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="6"/>
       <c r="B339" s="8"/>
       <c r="C339" s="1" t="s">
@@ -3673,7 +3935,7 @@
       </c>
       <c r="D339" s="4"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="6"/>
       <c r="B340" s="8"/>
       <c r="C340" s="1" t="s">
@@ -3681,15 +3943,17 @@
       </c>
       <c r="D340" s="4"/>
     </row>
-    <row r="341" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A341" s="6"/>
       <c r="B341" s="9"/>
       <c r="C341" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D341" s="4"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D341" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="6"/>
       <c r="B342" s="7" t="s">
         <v>5</v>
@@ -3699,7 +3963,7 @@
       </c>
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="6"/>
       <c r="B343" s="8"/>
       <c r="C343" s="1" t="s">
@@ -3707,7 +3971,7 @@
       </c>
       <c r="D343" s="4"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="6"/>
       <c r="B344" s="8"/>
       <c r="C344" s="1" t="s">
@@ -3715,7 +3979,7 @@
       </c>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="6"/>
       <c r="B345" s="8"/>
       <c r="C345" s="1" t="s">
@@ -3723,7 +3987,7 @@
       </c>
       <c r="D345" s="4"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="6"/>
       <c r="B346" s="8"/>
       <c r="C346" s="1" t="s">
@@ -3731,7 +3995,7 @@
       </c>
       <c r="D346" s="4"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="6"/>
       <c r="B347" s="8"/>
       <c r="C347" s="1" t="s">
@@ -3739,7 +4003,7 @@
       </c>
       <c r="D347" s="4"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="6"/>
       <c r="B348" s="8"/>
       <c r="C348" s="1" t="s">
@@ -3747,7 +4011,7 @@
       </c>
       <c r="D348" s="4"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="6"/>
       <c r="B349" s="8"/>
       <c r="C349" s="1" t="s">
@@ -3755,7 +4019,7 @@
       </c>
       <c r="D349" s="4"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="6"/>
       <c r="B350" s="8"/>
       <c r="C350" s="1" t="s">
@@ -3763,7 +4027,7 @@
       </c>
       <c r="D350" s="4"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="6"/>
       <c r="B351" s="8"/>
       <c r="C351" s="1" t="s">
@@ -3771,7 +4035,7 @@
       </c>
       <c r="D351" s="4"/>
     </row>
-    <row r="352" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A352" s="6"/>
       <c r="B352" s="9"/>
       <c r="C352" s="1" t="s">
@@ -3779,7 +4043,7 @@
       </c>
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="5">
         <v>9</v>
       </c>
@@ -3789,89 +4053,111 @@
       <c r="C353" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D353" s="3"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="6"/>
       <c r="B354" s="8"/>
       <c r="C354" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D354" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="6"/>
       <c r="B355" s="8"/>
       <c r="C355" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D355" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="6"/>
       <c r="B356" s="8"/>
       <c r="C356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D356" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="6"/>
       <c r="B357" s="8"/>
       <c r="C357" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D357" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="6"/>
       <c r="B358" s="8"/>
       <c r="C358" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D358" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="6"/>
       <c r="B359" s="8"/>
       <c r="C359" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D359" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="6"/>
       <c r="B360" s="8"/>
       <c r="C360" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D360" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="6"/>
       <c r="B361" s="8"/>
       <c r="C361" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D361" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="6"/>
       <c r="B362" s="8"/>
       <c r="C362" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D362" s="4"/>
-    </row>
-    <row r="363" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D362" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A363" s="6"/>
       <c r="B363" s="9"/>
       <c r="C363" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D363" s="4"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D363" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="6"/>
       <c r="B364" s="7" t="s">
         <v>3</v>
@@ -3881,7 +4167,7 @@
       </c>
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="6"/>
       <c r="B365" s="8"/>
       <c r="C365" s="1" t="s">
@@ -3889,7 +4175,7 @@
       </c>
       <c r="D365" s="4"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="6"/>
       <c r="B366" s="8"/>
       <c r="C366" s="1" t="s">
@@ -3897,7 +4183,7 @@
       </c>
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="6"/>
       <c r="B367" s="8"/>
       <c r="C367" s="1" t="s">
@@ -3905,7 +4191,7 @@
       </c>
       <c r="D367" s="4"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="6"/>
       <c r="B368" s="8"/>
       <c r="C368" s="1" t="s">
@@ -3913,7 +4199,7 @@
       </c>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="6"/>
       <c r="B369" s="8"/>
       <c r="C369" s="1" t="s">
@@ -3921,7 +4207,7 @@
       </c>
       <c r="D369" s="4"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="6"/>
       <c r="B370" s="8"/>
       <c r="C370" s="1" t="s">
@@ -3929,7 +4215,7 @@
       </c>
       <c r="D370" s="4"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="6"/>
       <c r="B371" s="8"/>
       <c r="C371" s="1" t="s">
@@ -3937,7 +4223,7 @@
       </c>
       <c r="D371" s="4"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="6"/>
       <c r="B372" s="8"/>
       <c r="C372" s="1" t="s">
@@ -3945,7 +4231,7 @@
       </c>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="6"/>
       <c r="B373" s="8"/>
       <c r="C373" s="1" t="s">
@@ -3953,7 +4239,7 @@
       </c>
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A374" s="6"/>
       <c r="B374" s="9"/>
       <c r="C374" s="1" t="s">
@@ -3961,7 +4247,7 @@
       </c>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="6"/>
       <c r="B375" s="7" t="s">
         <v>4</v>
@@ -3969,49 +4255,61 @@
       <c r="C375" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D375" s="3"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="6"/>
       <c r="B376" s="8"/>
       <c r="C376" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D376" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="6"/>
       <c r="B377" s="8"/>
       <c r="C377" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D377" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="6"/>
       <c r="B378" s="8"/>
       <c r="C378" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D378" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="6"/>
       <c r="B379" s="8"/>
       <c r="C379" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D379" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="6"/>
       <c r="B380" s="8"/>
       <c r="C380" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D380" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="6"/>
       <c r="B381" s="8"/>
       <c r="C381" s="1" t="s">
@@ -4019,15 +4317,17 @@
       </c>
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="6"/>
       <c r="B382" s="8"/>
       <c r="C382" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D382" s="4"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D382" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="6"/>
       <c r="B383" s="8"/>
       <c r="C383" s="1" t="s">
@@ -4035,23 +4335,27 @@
       </c>
       <c r="D383" s="4"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="6"/>
       <c r="B384" s="8"/>
       <c r="C384" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D384" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A385" s="6"/>
       <c r="B385" s="9"/>
       <c r="C385" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D385" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="6"/>
       <c r="B386" s="7" t="s">
         <v>5</v>
@@ -4061,7 +4365,7 @@
       </c>
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="6"/>
       <c r="B387" s="8"/>
       <c r="C387" s="1" t="s">
@@ -4069,7 +4373,7 @@
       </c>
       <c r="D387" s="4"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="6"/>
       <c r="B388" s="8"/>
       <c r="C388" s="1" t="s">
@@ -4077,7 +4381,7 @@
       </c>
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="6"/>
       <c r="B389" s="8"/>
       <c r="C389" s="1" t="s">
@@ -4085,7 +4389,7 @@
       </c>
       <c r="D389" s="4"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="6"/>
       <c r="B390" s="8"/>
       <c r="C390" s="1" t="s">
@@ -4093,7 +4397,7 @@
       </c>
       <c r="D390" s="4"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="6"/>
       <c r="B391" s="8"/>
       <c r="C391" s="1" t="s">
@@ -4101,7 +4405,7 @@
       </c>
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="6"/>
       <c r="B392" s="8"/>
       <c r="C392" s="1" t="s">
@@ -4109,7 +4413,7 @@
       </c>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="6"/>
       <c r="B393" s="8"/>
       <c r="C393" s="1" t="s">
@@ -4117,7 +4421,7 @@
       </c>
       <c r="D393" s="4"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="6"/>
       <c r="B394" s="8"/>
       <c r="C394" s="1" t="s">
@@ -4125,7 +4429,7 @@
       </c>
       <c r="D394" s="4"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="6"/>
       <c r="B395" s="8"/>
       <c r="C395" s="1" t="s">
@@ -4133,7 +4437,7 @@
       </c>
       <c r="D395" s="4"/>
     </row>
-    <row r="396" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A396" s="6"/>
       <c r="B396" s="9"/>
       <c r="C396" s="1" t="s">
@@ -4141,7 +4445,7 @@
       </c>
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="5">
         <v>10</v>
       </c>
@@ -4151,49 +4455,61 @@
       <c r="C397" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D397" s="3"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D397" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="6"/>
       <c r="B398" s="8"/>
       <c r="C398" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D398" s="4"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D398" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="6"/>
       <c r="B399" s="8"/>
       <c r="C399" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D399" s="4"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D399" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="6"/>
       <c r="B400" s="8"/>
       <c r="C400" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D400" s="4"/>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D400" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="6"/>
       <c r="B401" s="8"/>
       <c r="C401" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D401" s="4"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D401" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="6"/>
       <c r="B402" s="8"/>
       <c r="C402" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D402" s="4"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D402" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="6"/>
       <c r="B403" s="8"/>
       <c r="C403" s="1" t="s">
@@ -4201,7 +4517,7 @@
       </c>
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="6"/>
       <c r="B404" s="8"/>
       <c r="C404" s="1" t="s">
@@ -4209,7 +4525,7 @@
       </c>
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="6"/>
       <c r="B405" s="8"/>
       <c r="C405" s="1" t="s">
@@ -4217,23 +4533,27 @@
       </c>
       <c r="D405" s="4"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="6"/>
       <c r="B406" s="8"/>
       <c r="C406" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D406" s="4"/>
-    </row>
-    <row r="407" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D406" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A407" s="6"/>
       <c r="B407" s="9"/>
       <c r="C407" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D407" s="4"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D407" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="6"/>
       <c r="B408" s="7" t="s">
         <v>3</v>
@@ -4243,7 +4563,7 @@
       </c>
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="6"/>
       <c r="B409" s="8"/>
       <c r="C409" s="1" t="s">
@@ -4251,7 +4571,7 @@
       </c>
       <c r="D409" s="4"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="6"/>
       <c r="B410" s="8"/>
       <c r="C410" s="1" t="s">
@@ -4259,7 +4579,7 @@
       </c>
       <c r="D410" s="4"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="6"/>
       <c r="B411" s="8"/>
       <c r="C411" s="1" t="s">
@@ -4267,7 +4587,7 @@
       </c>
       <c r="D411" s="4"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="6"/>
       <c r="B412" s="8"/>
       <c r="C412" s="1" t="s">
@@ -4275,7 +4595,7 @@
       </c>
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="6"/>
       <c r="B413" s="8"/>
       <c r="C413" s="1" t="s">
@@ -4283,7 +4603,7 @@
       </c>
       <c r="D413" s="4"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="6"/>
       <c r="B414" s="8"/>
       <c r="C414" s="1" t="s">
@@ -4291,7 +4611,7 @@
       </c>
       <c r="D414" s="4"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="6"/>
       <c r="B415" s="8"/>
       <c r="C415" s="1" t="s">
@@ -4299,7 +4619,7 @@
       </c>
       <c r="D415" s="4"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="6"/>
       <c r="B416" s="8"/>
       <c r="C416" s="1" t="s">
@@ -4307,7 +4627,7 @@
       </c>
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="6"/>
       <c r="B417" s="8"/>
       <c r="C417" s="1" t="s">
@@ -4315,7 +4635,7 @@
       </c>
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A418" s="6"/>
       <c r="B418" s="9"/>
       <c r="C418" s="1" t="s">
@@ -4323,7 +4643,7 @@
       </c>
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="6"/>
       <c r="B419" s="7" t="s">
         <v>4</v>
@@ -4331,49 +4651,61 @@
       <c r="C419" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D419" s="3"/>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D419" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="6"/>
       <c r="B420" s="8"/>
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D420" s="4"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D420" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="6"/>
       <c r="B421" s="8"/>
       <c r="C421" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D421" s="4"/>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D421" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="6"/>
       <c r="B422" s="8"/>
       <c r="C422" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D422" s="4"/>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D422" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="6"/>
       <c r="B423" s="8"/>
       <c r="C423" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D423" s="4"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D423" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="6"/>
       <c r="B424" s="8"/>
       <c r="C424" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D424" s="4"/>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D424" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="6"/>
       <c r="B425" s="8"/>
       <c r="C425" s="1" t="s">
@@ -4381,15 +4713,17 @@
       </c>
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="6"/>
       <c r="B426" s="8"/>
       <c r="C426" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D426" s="4"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D426" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="6"/>
       <c r="B427" s="8"/>
       <c r="C427" s="1" t="s">
@@ -4397,23 +4731,27 @@
       </c>
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="6"/>
       <c r="B428" s="8"/>
       <c r="C428" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D428" s="4"/>
-    </row>
-    <row r="429" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D428" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A429" s="6"/>
       <c r="B429" s="9"/>
       <c r="C429" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D429" s="4"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D429" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="6"/>
       <c r="B430" s="7" t="s">
         <v>5</v>
@@ -4423,7 +4761,7 @@
       </c>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="6"/>
       <c r="B431" s="8"/>
       <c r="C431" s="1" t="s">
@@ -4431,7 +4769,7 @@
       </c>
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="6"/>
       <c r="B432" s="8"/>
       <c r="C432" s="1" t="s">
@@ -4439,7 +4777,7 @@
       </c>
       <c r="D432" s="4"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="6"/>
       <c r="B433" s="8"/>
       <c r="C433" s="1" t="s">
@@ -4447,7 +4785,7 @@
       </c>
       <c r="D433" s="4"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="6"/>
       <c r="B434" s="8"/>
       <c r="C434" s="1" t="s">
@@ -4455,7 +4793,7 @@
       </c>
       <c r="D434" s="4"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="6"/>
       <c r="B435" s="8"/>
       <c r="C435" s="1" t="s">
@@ -4463,7 +4801,7 @@
       </c>
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="6"/>
       <c r="B436" s="8"/>
       <c r="C436" s="1" t="s">
@@ -4471,7 +4809,7 @@
       </c>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="6"/>
       <c r="B437" s="8"/>
       <c r="C437" s="1" t="s">
@@ -4479,7 +4817,7 @@
       </c>
       <c r="D437" s="4"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="6"/>
       <c r="B438" s="8"/>
       <c r="C438" s="1" t="s">
@@ -4487,7 +4825,7 @@
       </c>
       <c r="D438" s="4"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="6"/>
       <c r="B439" s="8"/>
       <c r="C439" s="1" t="s">
@@ -4495,7 +4833,7 @@
       </c>
       <c r="D439" s="4"/>
     </row>
-    <row r="440" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A440" s="6"/>
       <c r="B440" s="9"/>
       <c r="C440" s="1" t="s">
@@ -4503,7 +4841,7 @@
       </c>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="5">
         <v>11</v>
       </c>
@@ -4513,41 +4851,51 @@
       <c r="C441" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D441" s="3"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D441" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="6"/>
       <c r="B442" s="8"/>
       <c r="C442" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D442" s="4"/>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D442" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="6"/>
       <c r="B443" s="8"/>
       <c r="C443" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D443" s="4"/>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D443" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="6"/>
       <c r="B444" s="8"/>
       <c r="C444" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D444" s="4"/>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D444" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="6"/>
       <c r="B445" s="8"/>
       <c r="C445" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D445" s="4"/>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D445" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="6"/>
       <c r="B446" s="8"/>
       <c r="C446" s="1" t="s">
@@ -4555,7 +4903,7 @@
       </c>
       <c r="D446" s="4"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="6"/>
       <c r="B447" s="8"/>
       <c r="C447" s="1" t="s">
@@ -4563,7 +4911,7 @@
       </c>
       <c r="D447" s="4"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="6"/>
       <c r="B448" s="8"/>
       <c r="C448" s="1" t="s">
@@ -4571,31 +4919,37 @@
       </c>
       <c r="D448" s="4"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="6"/>
       <c r="B449" s="8"/>
       <c r="C449" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D449" s="4"/>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D449" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="6"/>
       <c r="B450" s="8"/>
       <c r="C450" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D450" s="4"/>
-    </row>
-    <row r="451" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D450" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A451" s="6"/>
       <c r="B451" s="9"/>
       <c r="C451" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D451" s="4"/>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D451" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="6"/>
       <c r="B452" s="7" t="s">
         <v>3</v>
@@ -4605,7 +4959,7 @@
       </c>
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="6"/>
       <c r="B453" s="8"/>
       <c r="C453" s="1" t="s">
@@ -4613,7 +4967,7 @@
       </c>
       <c r="D453" s="4"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="6"/>
       <c r="B454" s="8"/>
       <c r="C454" s="1" t="s">
@@ -4621,7 +4975,7 @@
       </c>
       <c r="D454" s="4"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="6"/>
       <c r="B455" s="8"/>
       <c r="C455" s="1" t="s">
@@ -4629,7 +4983,7 @@
       </c>
       <c r="D455" s="4"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="6"/>
       <c r="B456" s="8"/>
       <c r="C456" s="1" t="s">
@@ -4637,7 +4991,7 @@
       </c>
       <c r="D456" s="4"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="6"/>
       <c r="B457" s="8"/>
       <c r="C457" s="1" t="s">
@@ -4645,7 +4999,7 @@
       </c>
       <c r="D457" s="4"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="6"/>
       <c r="B458" s="8"/>
       <c r="C458" s="1" t="s">
@@ -4653,7 +5007,7 @@
       </c>
       <c r="D458" s="4"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="6"/>
       <c r="B459" s="8"/>
       <c r="C459" s="1" t="s">
@@ -4661,7 +5015,7 @@
       </c>
       <c r="D459" s="4"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="6"/>
       <c r="B460" s="8"/>
       <c r="C460" s="1" t="s">
@@ -4669,7 +5023,7 @@
       </c>
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="6"/>
       <c r="B461" s="8"/>
       <c r="C461" s="1" t="s">
@@ -4677,7 +5031,7 @@
       </c>
       <c r="D461" s="4"/>
     </row>
-    <row r="462" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A462" s="6"/>
       <c r="B462" s="9"/>
       <c r="C462" s="1" t="s">
@@ -4685,7 +5039,7 @@
       </c>
       <c r="D462" s="4"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="6"/>
       <c r="B463" s="7" t="s">
         <v>4</v>
@@ -4693,57 +5047,71 @@
       <c r="C463" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D463" s="3"/>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D463" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="6"/>
       <c r="B464" s="8"/>
       <c r="C464" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D464" s="4"/>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D464" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="6"/>
       <c r="B465" s="8"/>
       <c r="C465" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D465" s="4"/>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D465" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="6"/>
       <c r="B466" s="8"/>
       <c r="C466" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D466" s="4"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D466" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="6"/>
       <c r="B467" s="8"/>
       <c r="C467" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D467" s="4"/>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D467" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="6"/>
       <c r="B468" s="8"/>
       <c r="C468" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D468" s="4"/>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D468" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="6"/>
       <c r="B469" s="8"/>
       <c r="C469" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D469" s="4"/>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D469" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="6"/>
       <c r="B470" s="8"/>
       <c r="C470" s="1" t="s">
@@ -4751,31 +5119,37 @@
       </c>
       <c r="D470" s="4"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D471" s="4"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D471" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="6"/>
       <c r="B472" s="8"/>
       <c r="C472" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D472" s="4"/>
-    </row>
-    <row r="473" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D472" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A473" s="6"/>
       <c r="B473" s="9"/>
       <c r="C473" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D473" s="4"/>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D473" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="6"/>
       <c r="B474" s="7" t="s">
         <v>5</v>
@@ -4785,7 +5159,7 @@
       </c>
       <c r="D474" s="3"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="6"/>
       <c r="B475" s="8"/>
       <c r="C475" s="1" t="s">
@@ -4793,7 +5167,7 @@
       </c>
       <c r="D475" s="4"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="6"/>
       <c r="B476" s="8"/>
       <c r="C476" s="1" t="s">
@@ -4801,7 +5175,7 @@
       </c>
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="6"/>
       <c r="B477" s="8"/>
       <c r="C477" s="1" t="s">
@@ -4809,7 +5183,7 @@
       </c>
       <c r="D477" s="4"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="6"/>
       <c r="B478" s="8"/>
       <c r="C478" s="1" t="s">
@@ -4817,7 +5191,7 @@
       </c>
       <c r="D478" s="4"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="6"/>
       <c r="B479" s="8"/>
       <c r="C479" s="1" t="s">
@@ -4825,7 +5199,7 @@
       </c>
       <c r="D479" s="4"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="6"/>
       <c r="B480" s="8"/>
       <c r="C480" s="1" t="s">
@@ -4833,7 +5207,7 @@
       </c>
       <c r="D480" s="4"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="6"/>
       <c r="B481" s="8"/>
       <c r="C481" s="1" t="s">
@@ -4841,7 +5215,7 @@
       </c>
       <c r="D481" s="4"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="6"/>
       <c r="B482" s="8"/>
       <c r="C482" s="1" t="s">
@@ -4849,7 +5223,7 @@
       </c>
       <c r="D482" s="4"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="6"/>
       <c r="B483" s="8"/>
       <c r="C483" s="1" t="s">
@@ -4857,7 +5231,7 @@
       </c>
       <c r="D483" s="4"/>
     </row>
-    <row r="484" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A484" s="6"/>
       <c r="B484" s="9"/>
       <c r="C484" s="1" t="s">
@@ -4865,7 +5239,7 @@
       </c>
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="5">
         <v>12</v>
       </c>
@@ -4875,81 +5249,101 @@
       <c r="C485" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D485" s="3"/>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D485" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="6"/>
       <c r="B486" s="8"/>
       <c r="C486" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D486" s="4"/>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D486" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="6"/>
       <c r="B487" s="8"/>
       <c r="C487" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D487" s="4"/>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D487" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="6"/>
       <c r="B488" s="8"/>
       <c r="C488" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D488" s="4"/>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D488" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="6"/>
       <c r="B489" s="8"/>
       <c r="C489" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D489" s="4"/>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D489" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="6"/>
       <c r="B490" s="8"/>
       <c r="C490" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D490" s="4"/>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D490" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="6"/>
       <c r="B491" s="8"/>
       <c r="C491" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D491" s="4"/>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D491" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="6"/>
       <c r="B492" s="8"/>
       <c r="C492" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D492" s="4"/>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D492" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="6"/>
       <c r="B493" s="8"/>
       <c r="C493" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D493" s="4"/>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D493" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="6"/>
       <c r="B494" s="8"/>
       <c r="C494" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D494" s="4"/>
-    </row>
-    <row r="495" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D494" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A495" s="6"/>
       <c r="B495" s="9"/>
       <c r="C495" s="1" t="s">
@@ -4957,7 +5351,7 @@
       </c>
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="6"/>
       <c r="B496" s="7" t="s">
         <v>3</v>
@@ -4967,7 +5361,7 @@
       </c>
       <c r="D496" s="3"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="6"/>
       <c r="B497" s="8"/>
       <c r="C497" s="1" t="s">
@@ -4975,7 +5369,7 @@
       </c>
       <c r="D497" s="4"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="6"/>
       <c r="B498" s="8"/>
       <c r="C498" s="1" t="s">
@@ -4983,7 +5377,7 @@
       </c>
       <c r="D498" s="4"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="6"/>
       <c r="B499" s="8"/>
       <c r="C499" s="1" t="s">
@@ -4991,7 +5385,7 @@
       </c>
       <c r="D499" s="4"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="6"/>
       <c r="B500" s="8"/>
       <c r="C500" s="1" t="s">
@@ -4999,7 +5393,7 @@
       </c>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="6"/>
       <c r="B501" s="8"/>
       <c r="C501" s="1" t="s">
@@ -5007,7 +5401,7 @@
       </c>
       <c r="D501" s="4"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="6"/>
       <c r="B502" s="8"/>
       <c r="C502" s="1" t="s">
@@ -5015,7 +5409,7 @@
       </c>
       <c r="D502" s="4"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="6"/>
       <c r="B503" s="8"/>
       <c r="C503" s="1" t="s">
@@ -5023,7 +5417,7 @@
       </c>
       <c r="D503" s="4"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="6"/>
       <c r="B504" s="8"/>
       <c r="C504" s="1" t="s">
@@ -5031,7 +5425,7 @@
       </c>
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="6"/>
       <c r="B505" s="8"/>
       <c r="C505" s="1" t="s">
@@ -5039,7 +5433,7 @@
       </c>
       <c r="D505" s="4"/>
     </row>
-    <row r="506" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A506" s="6"/>
       <c r="B506" s="9"/>
       <c r="C506" s="1" t="s">
@@ -5047,7 +5441,7 @@
       </c>
       <c r="D506" s="4"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="6"/>
       <c r="B507" s="7" t="s">
         <v>4</v>
@@ -5055,81 +5449,101 @@
       <c r="C507" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D507" s="3"/>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D507" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="6"/>
       <c r="B508" s="8"/>
       <c r="C508" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D508" s="4"/>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D508" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="6"/>
       <c r="B509" s="8"/>
       <c r="C509" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D509" s="4"/>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D509" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="6"/>
       <c r="B510" s="8"/>
       <c r="C510" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D510" s="4"/>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D510" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="6"/>
       <c r="B511" s="8"/>
       <c r="C511" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D511" s="4"/>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D511" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="6"/>
       <c r="B512" s="8"/>
       <c r="C512" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D512" s="4"/>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D512" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="6"/>
       <c r="B513" s="8"/>
       <c r="C513" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D513" s="4"/>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D513" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="6"/>
       <c r="B514" s="8"/>
       <c r="C514" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D514" s="4"/>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D514" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="6"/>
       <c r="B515" s="8"/>
       <c r="C515" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D515" s="4"/>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D515" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="6"/>
       <c r="B516" s="8"/>
       <c r="C516" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D516" s="4"/>
-    </row>
-    <row r="517" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D516" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A517" s="6"/>
       <c r="B517" s="9"/>
       <c r="C517" s="1" t="s">
@@ -5137,7 +5551,7 @@
       </c>
       <c r="D517" s="4"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="6"/>
       <c r="B518" s="7" t="s">
         <v>5</v>
@@ -5147,7 +5561,7 @@
       </c>
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="6"/>
       <c r="B519" s="8"/>
       <c r="C519" s="1" t="s">
@@ -5155,7 +5569,7 @@
       </c>
       <c r="D519" s="4"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="6"/>
       <c r="B520" s="8"/>
       <c r="C520" s="1" t="s">
@@ -5163,7 +5577,7 @@
       </c>
       <c r="D520" s="4"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="6"/>
       <c r="B521" s="8"/>
       <c r="C521" s="1" t="s">
@@ -5171,7 +5585,7 @@
       </c>
       <c r="D521" s="4"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="6"/>
       <c r="B522" s="8"/>
       <c r="C522" s="1" t="s">
@@ -5179,7 +5593,7 @@
       </c>
       <c r="D522" s="4"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="6"/>
       <c r="B523" s="8"/>
       <c r="C523" s="1" t="s">
@@ -5187,7 +5601,7 @@
       </c>
       <c r="D523" s="4"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="6"/>
       <c r="B524" s="8"/>
       <c r="C524" s="1" t="s">
@@ -5195,7 +5609,7 @@
       </c>
       <c r="D524" s="4"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="6"/>
       <c r="B525" s="8"/>
       <c r="C525" s="1" t="s">
@@ -5203,7 +5617,7 @@
       </c>
       <c r="D525" s="4"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="6"/>
       <c r="B526" s="8"/>
       <c r="C526" s="1" t="s">
@@ -5211,7 +5625,7 @@
       </c>
       <c r="D526" s="4"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="6"/>
       <c r="B527" s="8"/>
       <c r="C527" s="1" t="s">
@@ -5219,7 +5633,7 @@
       </c>
       <c r="D527" s="4"/>
     </row>
-    <row r="528" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A528" s="6"/>
       <c r="B528" s="9"/>
       <c r="C528" s="1" t="s">
@@ -5227,7 +5641,7 @@
       </c>
       <c r="D528" s="4"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="5">
         <v>13</v>
       </c>
@@ -5237,17 +5651,21 @@
       <c r="C529" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D529" s="3"/>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D529" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="6"/>
       <c r="B530" s="8"/>
       <c r="C530" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D530" s="4"/>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D530" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="6"/>
       <c r="B531" s="8"/>
       <c r="C531" s="1" t="s">
@@ -5255,23 +5673,27 @@
       </c>
       <c r="D531" s="4"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="6"/>
       <c r="B532" s="8"/>
       <c r="C532" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D532" s="4"/>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D532" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="6"/>
       <c r="B533" s="8"/>
       <c r="C533" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D533" s="4"/>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D533" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="6"/>
       <c r="B534" s="8"/>
       <c r="C534" s="1" t="s">
@@ -5279,31 +5701,37 @@
       </c>
       <c r="D534" s="4"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="6"/>
       <c r="B535" s="8"/>
       <c r="C535" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D535" s="4"/>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D535" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="6"/>
       <c r="B536" s="8"/>
       <c r="C536" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D536" s="4"/>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D536" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="6"/>
       <c r="B537" s="8"/>
       <c r="C537" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D537" s="4"/>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D537" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="6"/>
       <c r="B538" s="8"/>
       <c r="C538" s="1" t="s">
@@ -5311,15 +5739,17 @@
       </c>
       <c r="D538" s="4"/>
     </row>
-    <row r="539" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A539" s="6"/>
       <c r="B539" s="9"/>
       <c r="C539" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D539" s="4"/>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D539" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="6"/>
       <c r="B540" s="7" t="s">
         <v>3</v>
@@ -5329,7 +5759,7 @@
       </c>
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="6"/>
       <c r="B541" s="8"/>
       <c r="C541" s="1" t="s">
@@ -5337,7 +5767,7 @@
       </c>
       <c r="D541" s="4"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="6"/>
       <c r="B542" s="8"/>
       <c r="C542" s="1" t="s">
@@ -5345,7 +5775,7 @@
       </c>
       <c r="D542" s="4"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="6"/>
       <c r="B543" s="8"/>
       <c r="C543" s="1" t="s">
@@ -5353,7 +5783,7 @@
       </c>
       <c r="D543" s="4"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="6"/>
       <c r="B544" s="8"/>
       <c r="C544" s="1" t="s">
@@ -5361,7 +5791,7 @@
       </c>
       <c r="D544" s="4"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="6"/>
       <c r="B545" s="8"/>
       <c r="C545" s="1" t="s">
@@ -5369,7 +5799,7 @@
       </c>
       <c r="D545" s="4"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="6"/>
       <c r="B546" s="8"/>
       <c r="C546" s="1" t="s">
@@ -5377,7 +5807,7 @@
       </c>
       <c r="D546" s="4"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="6"/>
       <c r="B547" s="8"/>
       <c r="C547" s="1" t="s">
@@ -5385,7 +5815,7 @@
       </c>
       <c r="D547" s="4"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="6"/>
       <c r="B548" s="8"/>
       <c r="C548" s="1" t="s">
@@ -5393,7 +5823,7 @@
       </c>
       <c r="D548" s="4"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="6"/>
       <c r="B549" s="8"/>
       <c r="C549" s="1" t="s">
@@ -5401,7 +5831,7 @@
       </c>
       <c r="D549" s="4"/>
     </row>
-    <row r="550" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A550" s="6"/>
       <c r="B550" s="9"/>
       <c r="C550" s="1" t="s">
@@ -5409,7 +5839,7 @@
       </c>
       <c r="D550" s="4"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="6"/>
       <c r="B551" s="7" t="s">
         <v>4</v>
@@ -5417,9 +5847,11 @@
       <c r="C551" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D551" s="3"/>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D551" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="6"/>
       <c r="B552" s="8"/>
       <c r="C552" s="1" t="s">
@@ -5427,7 +5859,7 @@
       </c>
       <c r="D552" s="4"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="6"/>
       <c r="B553" s="8"/>
       <c r="C553" s="1" t="s">
@@ -5435,71 +5867,87 @@
       </c>
       <c r="D553" s="4"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="6"/>
       <c r="B554" s="8"/>
       <c r="C554" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D554" s="4"/>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D554" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="6"/>
       <c r="B555" s="8"/>
       <c r="C555" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D555" s="4"/>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D555" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="6"/>
       <c r="B556" s="8"/>
       <c r="C556" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D556" s="4"/>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D556" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="6"/>
       <c r="B557" s="8"/>
       <c r="C557" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D557" s="4"/>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D557" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="6"/>
       <c r="B558" s="8"/>
       <c r="C558" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D558" s="4"/>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D558" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="6"/>
       <c r="B559" s="8"/>
       <c r="C559" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D559" s="4"/>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D559" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="6"/>
       <c r="B560" s="8"/>
       <c r="C560" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D560" s="4"/>
-    </row>
-    <row r="561" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D560" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A561" s="6"/>
       <c r="B561" s="9"/>
       <c r="C561" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D561" s="4"/>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D561" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="6"/>
       <c r="B562" s="7" t="s">
         <v>5</v>
@@ -5509,7 +5957,7 @@
       </c>
       <c r="D562" s="3"/>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="6"/>
       <c r="B563" s="8"/>
       <c r="C563" s="1" t="s">
@@ -5517,7 +5965,7 @@
       </c>
       <c r="D563" s="4"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="6"/>
       <c r="B564" s="8"/>
       <c r="C564" s="1" t="s">
@@ -5525,7 +5973,7 @@
       </c>
       <c r="D564" s="4"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="6"/>
       <c r="B565" s="8"/>
       <c r="C565" s="1" t="s">
@@ -5533,7 +5981,7 @@
       </c>
       <c r="D565" s="4"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="6"/>
       <c r="B566" s="8"/>
       <c r="C566" s="1" t="s">
@@ -5541,7 +5989,7 @@
       </c>
       <c r="D566" s="4"/>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="6"/>
       <c r="B567" s="8"/>
       <c r="C567" s="1" t="s">
@@ -5549,7 +5997,7 @@
       </c>
       <c r="D567" s="4"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="6"/>
       <c r="B568" s="8"/>
       <c r="C568" s="1" t="s">
@@ -5557,7 +6005,7 @@
       </c>
       <c r="D568" s="4"/>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="6"/>
       <c r="B569" s="8"/>
       <c r="C569" s="1" t="s">
@@ -5565,7 +6013,7 @@
       </c>
       <c r="D569" s="4"/>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="6"/>
       <c r="B570" s="8"/>
       <c r="C570" s="1" t="s">
@@ -5573,7 +6021,7 @@
       </c>
       <c r="D570" s="4"/>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="6"/>
       <c r="B571" s="8"/>
       <c r="C571" s="1" t="s">
@@ -5581,7 +6029,7 @@
       </c>
       <c r="D571" s="4"/>
     </row>
-    <row r="572" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A572" s="6"/>
       <c r="B572" s="9"/>
       <c r="C572" s="1" t="s">
@@ -5589,7 +6037,7 @@
       </c>
       <c r="D572" s="4"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="5">
         <v>14</v>
       </c>
@@ -5599,81 +6047,101 @@
       <c r="C573" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D573" s="3"/>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D573" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="6"/>
       <c r="B574" s="8"/>
       <c r="C574" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D574" s="4"/>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D574" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="6"/>
       <c r="B575" s="8"/>
       <c r="C575" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D575" s="4"/>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D575" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="6"/>
       <c r="B576" s="8"/>
       <c r="C576" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D576" s="4"/>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D576" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="6"/>
       <c r="B577" s="8"/>
       <c r="C577" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D577" s="4"/>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D577" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="6"/>
       <c r="B578" s="8"/>
       <c r="C578" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D578" s="4"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D578" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="6"/>
       <c r="B579" s="8"/>
       <c r="C579" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D579" s="4"/>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D579" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="6"/>
       <c r="B580" s="8"/>
       <c r="C580" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D580" s="4"/>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D580" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="6"/>
       <c r="B581" s="8"/>
       <c r="C581" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D581" s="4"/>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D581" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="6"/>
       <c r="B582" s="8"/>
       <c r="C582" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D582" s="4"/>
-    </row>
-    <row r="583" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D582" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A583" s="6"/>
       <c r="B583" s="9"/>
       <c r="C583" s="1" t="s">
@@ -5681,7 +6149,7 @@
       </c>
       <c r="D583" s="4"/>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="6"/>
       <c r="B584" s="7" t="s">
         <v>3</v>
@@ -5691,7 +6159,7 @@
       </c>
       <c r="D584" s="3"/>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="6"/>
       <c r="B585" s="8"/>
       <c r="C585" s="1" t="s">
@@ -5699,7 +6167,7 @@
       </c>
       <c r="D585" s="4"/>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="6"/>
       <c r="B586" s="8"/>
       <c r="C586" s="1" t="s">
@@ -5707,7 +6175,7 @@
       </c>
       <c r="D586" s="4"/>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="6"/>
       <c r="B587" s="8"/>
       <c r="C587" s="1" t="s">
@@ -5715,7 +6183,7 @@
       </c>
       <c r="D587" s="4"/>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="6"/>
       <c r="B588" s="8"/>
       <c r="C588" s="1" t="s">
@@ -5723,7 +6191,7 @@
       </c>
       <c r="D588" s="4"/>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="6"/>
       <c r="B589" s="8"/>
       <c r="C589" s="1" t="s">
@@ -5731,7 +6199,7 @@
       </c>
       <c r="D589" s="4"/>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="6"/>
       <c r="B590" s="8"/>
       <c r="C590" s="1" t="s">
@@ -5739,7 +6207,7 @@
       </c>
       <c r="D590" s="4"/>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="6"/>
       <c r="B591" s="8"/>
       <c r="C591" s="1" t="s">
@@ -5747,7 +6215,7 @@
       </c>
       <c r="D591" s="4"/>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="6"/>
       <c r="B592" s="8"/>
       <c r="C592" s="1" t="s">
@@ -5755,7 +6223,7 @@
       </c>
       <c r="D592" s="4"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="6"/>
       <c r="B593" s="8"/>
       <c r="C593" s="1" t="s">
@@ -5763,7 +6231,7 @@
       </c>
       <c r="D593" s="4"/>
     </row>
-    <row r="594" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A594" s="6"/>
       <c r="B594" s="9"/>
       <c r="C594" s="1" t="s">
@@ -5771,7 +6239,7 @@
       </c>
       <c r="D594" s="4"/>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="6"/>
       <c r="B595" s="7" t="s">
         <v>4</v>
@@ -5779,33 +6247,41 @@
       <c r="C595" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D595" s="3"/>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D595" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="6"/>
       <c r="B596" s="8"/>
       <c r="C596" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D596" s="4"/>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D596" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="6"/>
       <c r="B597" s="8"/>
       <c r="C597" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D597" s="4"/>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D597" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="6"/>
       <c r="B598" s="8"/>
       <c r="C598" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D598" s="4"/>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D598" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="6"/>
       <c r="B599" s="8"/>
       <c r="C599" s="1" t="s">
@@ -5813,55 +6289,67 @@
       </c>
       <c r="D599" s="4"/>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="6"/>
       <c r="B600" s="8"/>
       <c r="C600" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D600" s="4"/>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D600" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="6"/>
       <c r="B601" s="8"/>
       <c r="C601" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D601" s="4"/>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D601" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="6"/>
       <c r="B602" s="8"/>
       <c r="C602" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D602" s="4"/>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D602" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="6"/>
       <c r="B603" s="8"/>
       <c r="C603" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D603" s="4"/>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D603" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="6"/>
       <c r="B604" s="8"/>
       <c r="C604" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D604" s="4"/>
-    </row>
-    <row r="605" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D604" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A605" s="6"/>
       <c r="B605" s="9"/>
       <c r="C605" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D605" s="4"/>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D605" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="6"/>
       <c r="B606" s="7" t="s">
         <v>5</v>
@@ -5871,7 +6359,7 @@
       </c>
       <c r="D606" s="3"/>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="6"/>
       <c r="B607" s="8"/>
       <c r="C607" s="1" t="s">
@@ -5879,7 +6367,7 @@
       </c>
       <c r="D607" s="4"/>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="6"/>
       <c r="B608" s="8"/>
       <c r="C608" s="1" t="s">
@@ -5887,7 +6375,7 @@
       </c>
       <c r="D608" s="4"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="6"/>
       <c r="B609" s="8"/>
       <c r="C609" s="1" t="s">
@@ -5895,7 +6383,7 @@
       </c>
       <c r="D609" s="4"/>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="6"/>
       <c r="B610" s="8"/>
       <c r="C610" s="1" t="s">
@@ -5903,7 +6391,7 @@
       </c>
       <c r="D610" s="4"/>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="6"/>
       <c r="B611" s="8"/>
       <c r="C611" s="1" t="s">
@@ -5911,7 +6399,7 @@
       </c>
       <c r="D611" s="4"/>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="6"/>
       <c r="B612" s="8"/>
       <c r="C612" s="1" t="s">
@@ -5919,7 +6407,7 @@
       </c>
       <c r="D612" s="4"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="6"/>
       <c r="B613" s="8"/>
       <c r="C613" s="1" t="s">
@@ -5927,7 +6415,7 @@
       </c>
       <c r="D613" s="4"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="6"/>
       <c r="B614" s="8"/>
       <c r="C614" s="1" t="s">
@@ -5935,7 +6423,7 @@
       </c>
       <c r="D614" s="4"/>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="6"/>
       <c r="B615" s="8"/>
       <c r="C615" s="1" t="s">
@@ -5943,7 +6431,7 @@
       </c>
       <c r="D615" s="4"/>
     </row>
-    <row r="616" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A616" s="6"/>
       <c r="B616" s="9"/>
       <c r="C616" s="1" t="s">
@@ -5951,7 +6439,7 @@
       </c>
       <c r="D616" s="4"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="5">
         <v>15</v>
       </c>
@@ -5961,41 +6449,51 @@
       <c r="C617" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D617" s="3"/>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D617" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="6"/>
       <c r="B618" s="8"/>
       <c r="C618" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D618" s="4"/>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D618" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="6"/>
       <c r="B619" s="8"/>
       <c r="C619" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D619" s="4"/>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D619" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="6"/>
       <c r="B620" s="8"/>
       <c r="C620" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D620" s="4"/>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D620" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="6"/>
       <c r="B621" s="8"/>
       <c r="C621" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D621" s="4"/>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D621" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="6"/>
       <c r="B622" s="8"/>
       <c r="C622" s="1" t="s">
@@ -6003,39 +6501,47 @@
       </c>
       <c r="D622" s="4"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="6"/>
       <c r="B623" s="8"/>
       <c r="C623" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D623" s="4"/>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D623" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="6"/>
       <c r="B624" s="8"/>
       <c r="C624" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D624" s="4"/>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D624" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="6"/>
       <c r="B625" s="8"/>
       <c r="C625" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D625" s="4"/>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D625" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="6"/>
       <c r="B626" s="8"/>
       <c r="C626" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D626" s="4"/>
-    </row>
-    <row r="627" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D626" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A627" s="6"/>
       <c r="B627" s="9"/>
       <c r="C627" s="1" t="s">
@@ -6043,7 +6549,7 @@
       </c>
       <c r="D627" s="4"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="6"/>
       <c r="B628" s="7" t="s">
         <v>3</v>
@@ -6053,7 +6559,7 @@
       </c>
       <c r="D628" s="3"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="6"/>
       <c r="B629" s="8"/>
       <c r="C629" s="1" t="s">
@@ -6061,7 +6567,7 @@
       </c>
       <c r="D629" s="4"/>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="6"/>
       <c r="B630" s="8"/>
       <c r="C630" s="1" t="s">
@@ -6069,7 +6575,7 @@
       </c>
       <c r="D630" s="4"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="6"/>
       <c r="B631" s="8"/>
       <c r="C631" s="1" t="s">
@@ -6077,7 +6583,7 @@
       </c>
       <c r="D631" s="4"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="6"/>
       <c r="B632" s="8"/>
       <c r="C632" s="1" t="s">
@@ -6085,7 +6591,7 @@
       </c>
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="6"/>
       <c r="B633" s="8"/>
       <c r="C633" s="1" t="s">
@@ -6093,7 +6599,7 @@
       </c>
       <c r="D633" s="4"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="6"/>
       <c r="B634" s="8"/>
       <c r="C634" s="1" t="s">
@@ -6101,7 +6607,7 @@
       </c>
       <c r="D634" s="4"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="6"/>
       <c r="B635" s="8"/>
       <c r="C635" s="1" t="s">
@@ -6109,7 +6615,7 @@
       </c>
       <c r="D635" s="4"/>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="6"/>
       <c r="B636" s="8"/>
       <c r="C636" s="1" t="s">
@@ -6117,7 +6623,7 @@
       </c>
       <c r="D636" s="4"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="6"/>
       <c r="B637" s="8"/>
       <c r="C637" s="1" t="s">
@@ -6125,7 +6631,7 @@
       </c>
       <c r="D637" s="4"/>
     </row>
-    <row r="638" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A638" s="6"/>
       <c r="B638" s="9"/>
       <c r="C638" s="1" t="s">
@@ -6133,7 +6639,7 @@
       </c>
       <c r="D638" s="4"/>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="6"/>
       <c r="B639" s="7" t="s">
         <v>4</v>
@@ -6141,17 +6647,21 @@
       <c r="C639" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D639" s="3"/>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D639" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="6"/>
       <c r="B640" s="8"/>
       <c r="C640" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D640" s="4"/>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D640" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="6"/>
       <c r="B641" s="8"/>
       <c r="C641" s="1" t="s">
@@ -6159,23 +6669,27 @@
       </c>
       <c r="D641" s="4"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="6"/>
       <c r="B642" s="8"/>
       <c r="C642" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D642" s="4"/>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D642" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="6"/>
       <c r="B643" s="8"/>
       <c r="C643" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D643" s="4"/>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D643" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="6"/>
       <c r="B644" s="8"/>
       <c r="C644" s="1" t="s">
@@ -6183,7 +6697,7 @@
       </c>
       <c r="D644" s="4"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="6"/>
       <c r="B645" s="8"/>
       <c r="C645" s="1" t="s">
@@ -6191,39 +6705,47 @@
       </c>
       <c r="D645" s="4"/>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="6"/>
       <c r="B646" s="8"/>
       <c r="C646" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D646" s="4"/>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D646" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="6"/>
       <c r="B647" s="8"/>
       <c r="C647" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D647" s="4"/>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D647" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="6"/>
       <c r="B648" s="8"/>
       <c r="C648" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D648" s="4"/>
-    </row>
-    <row r="649" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D648" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A649" s="6"/>
       <c r="B649" s="9"/>
       <c r="C649" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D649" s="4"/>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D649" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="6"/>
       <c r="B650" s="7" t="s">
         <v>5</v>
@@ -6233,7 +6755,7 @@
       </c>
       <c r="D650" s="3"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="6"/>
       <c r="B651" s="8"/>
       <c r="C651" s="1" t="s">
@@ -6241,7 +6763,7 @@
       </c>
       <c r="D651" s="4"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="6"/>
       <c r="B652" s="8"/>
       <c r="C652" s="1" t="s">
@@ -6249,7 +6771,7 @@
       </c>
       <c r="D652" s="4"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="6"/>
       <c r="B653" s="8"/>
       <c r="C653" s="1" t="s">
@@ -6257,7 +6779,7 @@
       </c>
       <c r="D653" s="4"/>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="6"/>
       <c r="B654" s="8"/>
       <c r="C654" s="1" t="s">
@@ -6265,7 +6787,7 @@
       </c>
       <c r="D654" s="4"/>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="6"/>
       <c r="B655" s="8"/>
       <c r="C655" s="1" t="s">
@@ -6273,7 +6795,7 @@
       </c>
       <c r="D655" s="4"/>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="6"/>
       <c r="B656" s="8"/>
       <c r="C656" s="1" t="s">
@@ -6281,7 +6803,7 @@
       </c>
       <c r="D656" s="4"/>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="6"/>
       <c r="B657" s="8"/>
       <c r="C657" s="1" t="s">
@@ -6289,7 +6811,7 @@
       </c>
       <c r="D657" s="4"/>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="6"/>
       <c r="B658" s="8"/>
       <c r="C658" s="1" t="s">
@@ -6297,7 +6819,7 @@
       </c>
       <c r="D658" s="4"/>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="6"/>
       <c r="B659" s="8"/>
       <c r="C659" s="1" t="s">
@@ -6305,7 +6827,7 @@
       </c>
       <c r="D659" s="4"/>
     </row>
-    <row r="660" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A660" s="6"/>
       <c r="B660" s="9"/>
       <c r="C660" s="1" t="s">
@@ -6313,7 +6835,7 @@
       </c>
       <c r="D660" s="4"/>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="5">
         <v>16</v>
       </c>
@@ -6323,41 +6845,51 @@
       <c r="C661" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D661" s="3"/>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D661" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="6"/>
       <c r="B662" s="8"/>
       <c r="C662" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D662" s="4"/>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D662" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="6"/>
       <c r="B663" s="8"/>
       <c r="C663" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D663" s="4"/>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D663" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="6"/>
       <c r="B664" s="8"/>
       <c r="C664" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D664" s="4"/>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D664" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="6"/>
       <c r="B665" s="8"/>
       <c r="C665" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D665" s="4"/>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D665" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="6"/>
       <c r="B666" s="8"/>
       <c r="C666" s="1" t="s">
@@ -6365,39 +6897,47 @@
       </c>
       <c r="D666" s="4"/>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="6"/>
       <c r="B667" s="8"/>
       <c r="C667" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D667" s="4"/>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D667" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="6"/>
       <c r="B668" s="8"/>
       <c r="C668" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D668" s="4"/>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D668" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="6"/>
       <c r="B669" s="8"/>
       <c r="C669" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D669" s="4"/>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D669" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="6"/>
       <c r="B670" s="8"/>
       <c r="C670" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D670" s="4"/>
-    </row>
-    <row r="671" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D670" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A671" s="6"/>
       <c r="B671" s="9"/>
       <c r="C671" s="1" t="s">
@@ -6405,7 +6945,7 @@
       </c>
       <c r="D671" s="4"/>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="6"/>
       <c r="B672" s="7" t="s">
         <v>3</v>
@@ -6415,7 +6955,7 @@
       </c>
       <c r="D672" s="3"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="6"/>
       <c r="B673" s="8"/>
       <c r="C673" s="1" t="s">
@@ -6423,7 +6963,7 @@
       </c>
       <c r="D673" s="4"/>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="6"/>
       <c r="B674" s="8"/>
       <c r="C674" s="1" t="s">
@@ -6431,7 +6971,7 @@
       </c>
       <c r="D674" s="4"/>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="6"/>
       <c r="B675" s="8"/>
       <c r="C675" s="1" t="s">
@@ -6439,7 +6979,7 @@
       </c>
       <c r="D675" s="4"/>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="6"/>
       <c r="B676" s="8"/>
       <c r="C676" s="1" t="s">
@@ -6447,7 +6987,7 @@
       </c>
       <c r="D676" s="4"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="6"/>
       <c r="B677" s="8"/>
       <c r="C677" s="1" t="s">
@@ -6455,7 +6995,7 @@
       </c>
       <c r="D677" s="4"/>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="6"/>
       <c r="B678" s="8"/>
       <c r="C678" s="1" t="s">
@@ -6463,7 +7003,7 @@
       </c>
       <c r="D678" s="4"/>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="6"/>
       <c r="B679" s="8"/>
       <c r="C679" s="1" t="s">
@@ -6471,7 +7011,7 @@
       </c>
       <c r="D679" s="4"/>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="6"/>
       <c r="B680" s="8"/>
       <c r="C680" s="1" t="s">
@@ -6479,7 +7019,7 @@
       </c>
       <c r="D680" s="4"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="6"/>
       <c r="B681" s="8"/>
       <c r="C681" s="1" t="s">
@@ -6487,7 +7027,7 @@
       </c>
       <c r="D681" s="4"/>
     </row>
-    <row r="682" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A682" s="6"/>
       <c r="B682" s="9"/>
       <c r="C682" s="1" t="s">
@@ -6495,7 +7035,7 @@
       </c>
       <c r="D682" s="4"/>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="6"/>
       <c r="B683" s="7" t="s">
         <v>4</v>
@@ -6503,81 +7043,101 @@
       <c r="C683" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D683" s="3"/>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D683" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="6"/>
       <c r="B684" s="8"/>
       <c r="C684" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D684" s="4"/>
-    </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D684" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="6"/>
       <c r="B685" s="8"/>
       <c r="C685" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D685" s="4"/>
-    </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D685" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="6"/>
       <c r="B686" s="8"/>
       <c r="C686" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D686" s="4"/>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D686" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="6"/>
       <c r="B687" s="8"/>
       <c r="C687" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D687" s="4"/>
-    </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D687" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="6"/>
       <c r="B688" s="8"/>
       <c r="C688" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D688" s="4"/>
-    </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D688" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="6"/>
       <c r="B689" s="8"/>
       <c r="C689" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D689" s="4"/>
-    </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D689" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="6"/>
       <c r="B690" s="8"/>
       <c r="C690" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D690" s="4"/>
-    </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D690" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="6"/>
       <c r="B691" s="8"/>
       <c r="C691" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D691" s="4"/>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D691" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="6"/>
       <c r="B692" s="8"/>
       <c r="C692" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D692" s="4"/>
-    </row>
-    <row r="693" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D692" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A693" s="6"/>
       <c r="B693" s="9"/>
       <c r="C693" s="1" t="s">
@@ -6585,7 +7145,7 @@
       </c>
       <c r="D693" s="4"/>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="6"/>
       <c r="B694" s="7" t="s">
         <v>5</v>
@@ -6595,7 +7155,7 @@
       </c>
       <c r="D694" s="3"/>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="6"/>
       <c r="B695" s="8"/>
       <c r="C695" s="1" t="s">
@@ -6603,7 +7163,7 @@
       </c>
       <c r="D695" s="4"/>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="6"/>
       <c r="B696" s="8"/>
       <c r="C696" s="1" t="s">
@@ -6611,7 +7171,7 @@
       </c>
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="6"/>
       <c r="B697" s="8"/>
       <c r="C697" s="1" t="s">
@@ -6619,7 +7179,7 @@
       </c>
       <c r="D697" s="4"/>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="6"/>
       <c r="B698" s="8"/>
       <c r="C698" s="1" t="s">
@@ -6627,7 +7187,7 @@
       </c>
       <c r="D698" s="4"/>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A699" s="6"/>
       <c r="B699" s="8"/>
       <c r="C699" s="1" t="s">
@@ -6635,7 +7195,7 @@
       </c>
       <c r="D699" s="4"/>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A700" s="6"/>
       <c r="B700" s="8"/>
       <c r="C700" s="1" t="s">
@@ -6643,7 +7203,7 @@
       </c>
       <c r="D700" s="4"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A701" s="6"/>
       <c r="B701" s="8"/>
       <c r="C701" s="1" t="s">
@@ -6651,7 +7211,7 @@
       </c>
       <c r="D701" s="4"/>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A702" s="6"/>
       <c r="B702" s="8"/>
       <c r="C702" s="1" t="s">
@@ -6659,7 +7219,7 @@
       </c>
       <c r="D702" s="4"/>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A703" s="6"/>
       <c r="B703" s="8"/>
       <c r="C703" s="1" t="s">
@@ -6667,7 +7227,7 @@
       </c>
       <c r="D703" s="4"/>
     </row>
-    <row r="704" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A704" s="6"/>
       <c r="B704" s="9"/>
       <c r="C704" s="1" t="s">
@@ -6675,7 +7235,7 @@
       </c>
       <c r="D704" s="4"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A705" s="5">
         <v>17</v>
       </c>
@@ -6685,41 +7245,51 @@
       <c r="C705" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D705" s="3"/>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D705" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A706" s="6"/>
       <c r="B706" s="8"/>
       <c r="C706" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D706" s="4"/>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D706" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A707" s="6"/>
       <c r="B707" s="8"/>
       <c r="C707" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D707" s="4"/>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D707" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A708" s="6"/>
       <c r="B708" s="8"/>
       <c r="C708" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D708" s="4"/>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D708" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A709" s="6"/>
       <c r="B709" s="8"/>
       <c r="C709" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D709" s="4"/>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D709" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A710" s="6"/>
       <c r="B710" s="8"/>
       <c r="C710" s="1" t="s">
@@ -6727,39 +7297,47 @@
       </c>
       <c r="D710" s="4"/>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A711" s="6"/>
       <c r="B711" s="8"/>
       <c r="C711" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D711" s="4"/>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D711" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A712" s="6"/>
       <c r="B712" s="8"/>
       <c r="C712" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D712" s="4"/>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D712" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A713" s="6"/>
       <c r="B713" s="8"/>
       <c r="C713" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D713" s="4"/>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D713" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A714" s="6"/>
       <c r="B714" s="8"/>
       <c r="C714" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D714" s="4"/>
-    </row>
-    <row r="715" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D714" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A715" s="6"/>
       <c r="B715" s="9"/>
       <c r="C715" s="1" t="s">
@@ -6767,7 +7345,7 @@
       </c>
       <c r="D715" s="4"/>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A716" s="6"/>
       <c r="B716" s="7" t="s">
         <v>3</v>
@@ -6777,7 +7355,7 @@
       </c>
       <c r="D716" s="3"/>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A717" s="6"/>
       <c r="B717" s="8"/>
       <c r="C717" s="1" t="s">
@@ -6785,7 +7363,7 @@
       </c>
       <c r="D717" s="4"/>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A718" s="6"/>
       <c r="B718" s="8"/>
       <c r="C718" s="1" t="s">
@@ -6793,7 +7371,7 @@
       </c>
       <c r="D718" s="4"/>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A719" s="6"/>
       <c r="B719" s="8"/>
       <c r="C719" s="1" t="s">
@@ -6801,7 +7379,7 @@
       </c>
       <c r="D719" s="4"/>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A720" s="6"/>
       <c r="B720" s="8"/>
       <c r="C720" s="1" t="s">
@@ -6809,7 +7387,7 @@
       </c>
       <c r="D720" s="4"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A721" s="6"/>
       <c r="B721" s="8"/>
       <c r="C721" s="1" t="s">
@@ -6817,7 +7395,7 @@
       </c>
       <c r="D721" s="4"/>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A722" s="6"/>
       <c r="B722" s="8"/>
       <c r="C722" s="1" t="s">
@@ -6825,7 +7403,7 @@
       </c>
       <c r="D722" s="4"/>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A723" s="6"/>
       <c r="B723" s="8"/>
       <c r="C723" s="1" t="s">
@@ -6833,7 +7411,7 @@
       </c>
       <c r="D723" s="4"/>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A724" s="6"/>
       <c r="B724" s="8"/>
       <c r="C724" s="1" t="s">
@@ -6841,7 +7419,7 @@
       </c>
       <c r="D724" s="4"/>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A725" s="6"/>
       <c r="B725" s="8"/>
       <c r="C725" s="1" t="s">
@@ -6849,7 +7427,7 @@
       </c>
       <c r="D725" s="4"/>
     </row>
-    <row r="726" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A726" s="6"/>
       <c r="B726" s="9"/>
       <c r="C726" s="1" t="s">
@@ -6857,7 +7435,7 @@
       </c>
       <c r="D726" s="4"/>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A727" s="6"/>
       <c r="B727" s="7" t="s">
         <v>4</v>
@@ -6865,81 +7443,101 @@
       <c r="C727" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D727" s="3"/>
-    </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D727" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A728" s="6"/>
       <c r="B728" s="8"/>
       <c r="C728" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D728" s="4"/>
-    </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D728" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A729" s="6"/>
       <c r="B729" s="8"/>
       <c r="C729" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D729" s="4"/>
-    </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D729" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A730" s="6"/>
       <c r="B730" s="8"/>
       <c r="C730" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D730" s="4"/>
-    </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D730" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A731" s="6"/>
       <c r="B731" s="8"/>
       <c r="C731" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D731" s="4"/>
-    </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D731" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A732" s="6"/>
       <c r="B732" s="8"/>
       <c r="C732" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D732" s="4"/>
-    </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D732" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A733" s="6"/>
       <c r="B733" s="8"/>
       <c r="C733" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D733" s="4"/>
-    </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D733" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A734" s="6"/>
       <c r="B734" s="8"/>
       <c r="C734" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D734" s="4"/>
-    </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D734" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A735" s="6"/>
       <c r="B735" s="8"/>
       <c r="C735" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D735" s="4"/>
-    </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D735" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A736" s="6"/>
       <c r="B736" s="8"/>
       <c r="C736" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D736" s="4"/>
-    </row>
-    <row r="737" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D736" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A737" s="6"/>
       <c r="B737" s="9"/>
       <c r="C737" s="1" t="s">
@@ -6947,7 +7545,7 @@
       </c>
       <c r="D737" s="4"/>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A738" s="6"/>
       <c r="B738" s="7" t="s">
         <v>5</v>
@@ -6957,7 +7555,7 @@
       </c>
       <c r="D738" s="3"/>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A739" s="6"/>
       <c r="B739" s="8"/>
       <c r="C739" s="1" t="s">
@@ -6965,7 +7563,7 @@
       </c>
       <c r="D739" s="4"/>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A740" s="6"/>
       <c r="B740" s="8"/>
       <c r="C740" s="1" t="s">
@@ -6973,7 +7571,7 @@
       </c>
       <c r="D740" s="4"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A741" s="6"/>
       <c r="B741" s="8"/>
       <c r="C741" s="1" t="s">
@@ -6981,7 +7579,7 @@
       </c>
       <c r="D741" s="4"/>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A742" s="6"/>
       <c r="B742" s="8"/>
       <c r="C742" s="1" t="s">
@@ -6989,7 +7587,7 @@
       </c>
       <c r="D742" s="4"/>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A743" s="6"/>
       <c r="B743" s="8"/>
       <c r="C743" s="1" t="s">
@@ -6997,7 +7595,7 @@
       </c>
       <c r="D743" s="4"/>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A744" s="6"/>
       <c r="B744" s="8"/>
       <c r="C744" s="1" t="s">
@@ -7005,7 +7603,7 @@
       </c>
       <c r="D744" s="4"/>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A745" s="6"/>
       <c r="B745" s="8"/>
       <c r="C745" s="1" t="s">
@@ -7013,7 +7611,7 @@
       </c>
       <c r="D745" s="4"/>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A746" s="6"/>
       <c r="B746" s="8"/>
       <c r="C746" s="1" t="s">
@@ -7021,7 +7619,7 @@
       </c>
       <c r="D746" s="4"/>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A747" s="6"/>
       <c r="B747" s="8"/>
       <c r="C747" s="1" t="s">
@@ -7029,7 +7627,7 @@
       </c>
       <c r="D747" s="4"/>
     </row>
-    <row r="748" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A748" s="6"/>
       <c r="B748" s="9"/>
       <c r="C748" s="1" t="s">
@@ -7037,7 +7635,7 @@
       </c>
       <c r="D748" s="4"/>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A749" s="5">
         <v>18</v>
       </c>
@@ -7047,81 +7645,101 @@
       <c r="C749" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D749" s="3"/>
-    </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D749" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A750" s="6"/>
       <c r="B750" s="8"/>
       <c r="C750" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D750" s="4"/>
-    </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D750" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A751" s="6"/>
       <c r="B751" s="8"/>
       <c r="C751" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D751" s="4"/>
-    </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D751" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A752" s="6"/>
       <c r="B752" s="8"/>
       <c r="C752" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D752" s="4"/>
-    </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D752" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A753" s="6"/>
       <c r="B753" s="8"/>
       <c r="C753" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D753" s="4"/>
-    </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D753" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A754" s="6"/>
       <c r="B754" s="8"/>
       <c r="C754" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D754" s="4"/>
-    </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D754" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A755" s="6"/>
       <c r="B755" s="8"/>
       <c r="C755" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D755" s="4"/>
-    </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D755" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A756" s="6"/>
       <c r="B756" s="8"/>
       <c r="C756" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D756" s="4"/>
-    </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D756" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A757" s="6"/>
       <c r="B757" s="8"/>
       <c r="C757" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D757" s="4"/>
-    </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D757" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A758" s="6"/>
       <c r="B758" s="8"/>
       <c r="C758" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D758" s="4"/>
-    </row>
-    <row r="759" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D758" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A759" s="6"/>
       <c r="B759" s="9"/>
       <c r="C759" s="1" t="s">
@@ -7129,7 +7747,7 @@
       </c>
       <c r="D759" s="4"/>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A760" s="6"/>
       <c r="B760" s="7" t="s">
         <v>3</v>
@@ -7139,7 +7757,7 @@
       </c>
       <c r="D760" s="3"/>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A761" s="6"/>
       <c r="B761" s="8"/>
       <c r="C761" s="1" t="s">
@@ -7147,7 +7765,7 @@
       </c>
       <c r="D761" s="4"/>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A762" s="6"/>
       <c r="B762" s="8"/>
       <c r="C762" s="1" t="s">
@@ -7155,7 +7773,7 @@
       </c>
       <c r="D762" s="4"/>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A763" s="6"/>
       <c r="B763" s="8"/>
       <c r="C763" s="1" t="s">
@@ -7163,7 +7781,7 @@
       </c>
       <c r="D763" s="4"/>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A764" s="6"/>
       <c r="B764" s="8"/>
       <c r="C764" s="1" t="s">
@@ -7171,7 +7789,7 @@
       </c>
       <c r="D764" s="4"/>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A765" s="6"/>
       <c r="B765" s="8"/>
       <c r="C765" s="1" t="s">
@@ -7179,7 +7797,7 @@
       </c>
       <c r="D765" s="4"/>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A766" s="6"/>
       <c r="B766" s="8"/>
       <c r="C766" s="1" t="s">
@@ -7187,7 +7805,7 @@
       </c>
       <c r="D766" s="4"/>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A767" s="6"/>
       <c r="B767" s="8"/>
       <c r="C767" s="1" t="s">
@@ -7195,7 +7813,7 @@
       </c>
       <c r="D767" s="4"/>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A768" s="6"/>
       <c r="B768" s="8"/>
       <c r="C768" s="1" t="s">
@@ -7203,7 +7821,7 @@
       </c>
       <c r="D768" s="4"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A769" s="6"/>
       <c r="B769" s="8"/>
       <c r="C769" s="1" t="s">
@@ -7211,7 +7829,7 @@
       </c>
       <c r="D769" s="4"/>
     </row>
-    <row r="770" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A770" s="6"/>
       <c r="B770" s="9"/>
       <c r="C770" s="1" t="s">
@@ -7219,7 +7837,7 @@
       </c>
       <c r="D770" s="4"/>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A771" s="6"/>
       <c r="B771" s="7" t="s">
         <v>4</v>
@@ -7227,81 +7845,101 @@
       <c r="C771" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D771" s="3"/>
-    </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D771" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A772" s="6"/>
       <c r="B772" s="8"/>
       <c r="C772" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D772" s="4"/>
-    </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D772" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A773" s="6"/>
       <c r="B773" s="8"/>
       <c r="C773" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D773" s="4"/>
-    </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D773" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A774" s="6"/>
       <c r="B774" s="8"/>
       <c r="C774" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D774" s="4"/>
-    </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D774" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A775" s="6"/>
       <c r="B775" s="8"/>
       <c r="C775" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D775" s="4"/>
-    </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D775" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A776" s="6"/>
       <c r="B776" s="8"/>
       <c r="C776" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D776" s="4"/>
-    </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D776" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A777" s="6"/>
       <c r="B777" s="8"/>
       <c r="C777" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D777" s="4"/>
-    </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D777" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A778" s="6"/>
       <c r="B778" s="8"/>
       <c r="C778" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D778" s="4"/>
-    </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D778" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A779" s="6"/>
       <c r="B779" s="8"/>
       <c r="C779" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D779" s="4"/>
-    </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D779" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A780" s="6"/>
       <c r="B780" s="8"/>
       <c r="C780" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D780" s="4"/>
-    </row>
-    <row r="781" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D780" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A781" s="6"/>
       <c r="B781" s="9"/>
       <c r="C781" s="1" t="s">
@@ -7309,7 +7947,7 @@
       </c>
       <c r="D781" s="4"/>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A782" s="6"/>
       <c r="B782" s="7" t="s">
         <v>5</v>
@@ -7319,7 +7957,7 @@
       </c>
       <c r="D782" s="3"/>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A783" s="6"/>
       <c r="B783" s="8"/>
       <c r="C783" s="1" t="s">
@@ -7327,7 +7965,7 @@
       </c>
       <c r="D783" s="4"/>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A784" s="6"/>
       <c r="B784" s="8"/>
       <c r="C784" s="1" t="s">
@@ -7335,7 +7973,7 @@
       </c>
       <c r="D784" s="4"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A785" s="6"/>
       <c r="B785" s="8"/>
       <c r="C785" s="1" t="s">
@@ -7343,7 +7981,7 @@
       </c>
       <c r="D785" s="4"/>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A786" s="6"/>
       <c r="B786" s="8"/>
       <c r="C786" s="1" t="s">
@@ -7351,7 +7989,7 @@
       </c>
       <c r="D786" s="4"/>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A787" s="6"/>
       <c r="B787" s="8"/>
       <c r="C787" s="1" t="s">
@@ -7359,7 +7997,7 @@
       </c>
       <c r="D787" s="4"/>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A788" s="6"/>
       <c r="B788" s="8"/>
       <c r="C788" s="1" t="s">
@@ -7367,7 +8005,7 @@
       </c>
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A789" s="6"/>
       <c r="B789" s="8"/>
       <c r="C789" s="1" t="s">
@@ -7375,7 +8013,7 @@
       </c>
       <c r="D789" s="4"/>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A790" s="6"/>
       <c r="B790" s="8"/>
       <c r="C790" s="1" t="s">
@@ -7383,7 +8021,7 @@
       </c>
       <c r="D790" s="4"/>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A791" s="6"/>
       <c r="B791" s="8"/>
       <c r="C791" s="1" t="s">
@@ -7391,7 +8029,7 @@
       </c>
       <c r="D791" s="4"/>
     </row>
-    <row r="792" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A792" s="6"/>
       <c r="B792" s="9"/>
       <c r="C792" s="1" t="s">
@@ -7399,7 +8037,7 @@
       </c>
       <c r="D792" s="4"/>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A793" s="5">
         <v>19</v>
       </c>
@@ -7409,81 +8047,101 @@
       <c r="C793" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D793" s="3"/>
-    </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D793" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A794" s="6"/>
       <c r="B794" s="8"/>
       <c r="C794" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D794" s="4"/>
-    </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D794" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A795" s="6"/>
       <c r="B795" s="8"/>
       <c r="C795" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D795" s="4"/>
-    </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D795" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A796" s="6"/>
       <c r="B796" s="8"/>
       <c r="C796" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D796" s="4"/>
-    </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D796" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A797" s="6"/>
       <c r="B797" s="8"/>
       <c r="C797" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D797" s="4"/>
-    </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D797" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A798" s="6"/>
       <c r="B798" s="8"/>
       <c r="C798" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D798" s="4"/>
-    </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D798" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A799" s="6"/>
       <c r="B799" s="8"/>
       <c r="C799" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D799" s="4"/>
-    </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D799" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A800" s="6"/>
       <c r="B800" s="8"/>
       <c r="C800" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D800" s="4"/>
-    </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D800" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A801" s="6"/>
       <c r="B801" s="8"/>
       <c r="C801" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D801" s="4"/>
-    </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D801" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A802" s="6"/>
       <c r="B802" s="8"/>
       <c r="C802" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D802" s="4"/>
-    </row>
-    <row r="803" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D802" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A803" s="6"/>
       <c r="B803" s="9"/>
       <c r="C803" s="1" t="s">
@@ -7491,7 +8149,7 @@
       </c>
       <c r="D803" s="4"/>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A804" s="6"/>
       <c r="B804" s="7" t="s">
         <v>3</v>
@@ -7501,7 +8159,7 @@
       </c>
       <c r="D804" s="3"/>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A805" s="6"/>
       <c r="B805" s="8"/>
       <c r="C805" s="1" t="s">
@@ -7509,7 +8167,7 @@
       </c>
       <c r="D805" s="4"/>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A806" s="6"/>
       <c r="B806" s="8"/>
       <c r="C806" s="1" t="s">
@@ -7517,7 +8175,7 @@
       </c>
       <c r="D806" s="4"/>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A807" s="6"/>
       <c r="B807" s="8"/>
       <c r="C807" s="1" t="s">
@@ -7525,7 +8183,7 @@
       </c>
       <c r="D807" s="4"/>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A808" s="6"/>
       <c r="B808" s="8"/>
       <c r="C808" s="1" t="s">
@@ -7533,7 +8191,7 @@
       </c>
       <c r="D808" s="4"/>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A809" s="6"/>
       <c r="B809" s="8"/>
       <c r="C809" s="1" t="s">
@@ -7541,7 +8199,7 @@
       </c>
       <c r="D809" s="4"/>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A810" s="6"/>
       <c r="B810" s="8"/>
       <c r="C810" s="1" t="s">
@@ -7549,7 +8207,7 @@
       </c>
       <c r="D810" s="4"/>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A811" s="6"/>
       <c r="B811" s="8"/>
       <c r="C811" s="1" t="s">
@@ -7557,7 +8215,7 @@
       </c>
       <c r="D811" s="4"/>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A812" s="6"/>
       <c r="B812" s="8"/>
       <c r="C812" s="1" t="s">
@@ -7565,7 +8223,7 @@
       </c>
       <c r="D812" s="4"/>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A813" s="6"/>
       <c r="B813" s="8"/>
       <c r="C813" s="1" t="s">
@@ -7573,7 +8231,7 @@
       </c>
       <c r="D813" s="4"/>
     </row>
-    <row r="814" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A814" s="6"/>
       <c r="B814" s="9"/>
       <c r="C814" s="1" t="s">
@@ -7581,7 +8239,7 @@
       </c>
       <c r="D814" s="4"/>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A815" s="6"/>
       <c r="B815" s="7" t="s">
         <v>4</v>
@@ -7589,89 +8247,111 @@
       <c r="C815" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D815" s="3"/>
-    </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D815" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A816" s="6"/>
       <c r="B816" s="8"/>
       <c r="C816" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D816" s="4"/>
-    </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D816" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A817" s="6"/>
       <c r="B817" s="8"/>
       <c r="C817" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D817" s="4"/>
-    </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D817" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A818" s="6"/>
       <c r="B818" s="8"/>
       <c r="C818" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D818" s="4"/>
-    </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D818" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A819" s="6"/>
       <c r="B819" s="8"/>
       <c r="C819" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D819" s="4"/>
-    </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D819" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A820" s="6"/>
       <c r="B820" s="8"/>
       <c r="C820" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D820" s="4"/>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D820" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A821" s="6"/>
       <c r="B821" s="8"/>
       <c r="C821" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D821" s="4"/>
-    </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D821" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A822" s="6"/>
       <c r="B822" s="8"/>
       <c r="C822" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D822" s="4"/>
-    </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D822" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A823" s="6"/>
       <c r="B823" s="8"/>
       <c r="C823" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D823" s="4"/>
-    </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D823" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A824" s="6"/>
       <c r="B824" s="8"/>
       <c r="C824" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D824" s="4"/>
-    </row>
-    <row r="825" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D824" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A825" s="6"/>
       <c r="B825" s="9"/>
       <c r="C825" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D825" s="4"/>
-    </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D825" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A826" s="6"/>
       <c r="B826" s="7" t="s">
         <v>5</v>
@@ -7681,7 +8361,7 @@
       </c>
       <c r="D826" s="3"/>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A827" s="6"/>
       <c r="B827" s="8"/>
       <c r="C827" s="1" t="s">
@@ -7689,7 +8369,7 @@
       </c>
       <c r="D827" s="4"/>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A828" s="6"/>
       <c r="B828" s="8"/>
       <c r="C828" s="1" t="s">
@@ -7697,7 +8377,7 @@
       </c>
       <c r="D828" s="4"/>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A829" s="6"/>
       <c r="B829" s="8"/>
       <c r="C829" s="1" t="s">
@@ -7705,7 +8385,7 @@
       </c>
       <c r="D829" s="4"/>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A830" s="6"/>
       <c r="B830" s="8"/>
       <c r="C830" s="1" t="s">
@@ -7713,7 +8393,7 @@
       </c>
       <c r="D830" s="4"/>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A831" s="6"/>
       <c r="B831" s="8"/>
       <c r="C831" s="1" t="s">
@@ -7721,7 +8401,7 @@
       </c>
       <c r="D831" s="4"/>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A832" s="6"/>
       <c r="B832" s="8"/>
       <c r="C832" s="1" t="s">
@@ -7729,7 +8409,7 @@
       </c>
       <c r="D832" s="4"/>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A833" s="6"/>
       <c r="B833" s="8"/>
       <c r="C833" s="1" t="s">
@@ -7737,7 +8417,7 @@
       </c>
       <c r="D833" s="4"/>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A834" s="6"/>
       <c r="B834" s="8"/>
       <c r="C834" s="1" t="s">
@@ -7745,7 +8425,7 @@
       </c>
       <c r="D834" s="4"/>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A835" s="6"/>
       <c r="B835" s="8"/>
       <c r="C835" s="1" t="s">
@@ -7753,7 +8433,7 @@
       </c>
       <c r="D835" s="4"/>
     </row>
-    <row r="836" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A836" s="6"/>
       <c r="B836" s="9"/>
       <c r="C836" s="1" t="s">
@@ -7761,7 +8441,7 @@
       </c>
       <c r="D836" s="4"/>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A837" s="5">
         <v>20</v>
       </c>
@@ -7771,73 +8451,91 @@
       <c r="C837" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D837" s="3"/>
-    </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D837" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A838" s="6"/>
       <c r="B838" s="8"/>
       <c r="C838" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D838" s="4"/>
-    </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D838" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A839" s="6"/>
       <c r="B839" s="8"/>
       <c r="C839" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D839" s="4"/>
-    </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D839" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A840" s="6"/>
       <c r="B840" s="8"/>
       <c r="C840" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D840" s="4"/>
-    </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D840" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A841" s="6"/>
       <c r="B841" s="8"/>
       <c r="C841" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D841" s="4"/>
-    </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D841" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A842" s="6"/>
       <c r="B842" s="8"/>
       <c r="C842" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D842" s="4"/>
-    </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D842" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A843" s="6"/>
       <c r="B843" s="8"/>
       <c r="C843" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D843" s="4"/>
-    </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D843" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A844" s="6"/>
       <c r="B844" s="8"/>
       <c r="C844" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D844" s="4"/>
-    </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D844" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A845" s="6"/>
       <c r="B845" s="8"/>
       <c r="C845" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D845" s="4"/>
-    </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D845" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A846" s="6"/>
       <c r="B846" s="8"/>
       <c r="C846" s="1" t="s">
@@ -7845,15 +8543,17 @@
       </c>
       <c r="D846" s="4"/>
     </row>
-    <row r="847" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A847" s="6"/>
       <c r="B847" s="9"/>
       <c r="C847" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D847" s="4"/>
-    </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D847" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A848" s="6"/>
       <c r="B848" s="7" t="s">
         <v>3</v>
@@ -7863,7 +8563,7 @@
       </c>
       <c r="D848" s="3"/>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A849" s="6"/>
       <c r="B849" s="8"/>
       <c r="C849" s="1" t="s">
@@ -7871,7 +8571,7 @@
       </c>
       <c r="D849" s="4"/>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A850" s="6"/>
       <c r="B850" s="8"/>
       <c r="C850" s="1" t="s">
@@ -7879,7 +8579,7 @@
       </c>
       <c r="D850" s="4"/>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A851" s="6"/>
       <c r="B851" s="8"/>
       <c r="C851" s="1" t="s">
@@ -7887,7 +8587,7 @@
       </c>
       <c r="D851" s="4"/>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A852" s="6"/>
       <c r="B852" s="8"/>
       <c r="C852" s="1" t="s">
@@ -7895,7 +8595,7 @@
       </c>
       <c r="D852" s="4"/>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A853" s="6"/>
       <c r="B853" s="8"/>
       <c r="C853" s="1" t="s">
@@ -7903,7 +8603,7 @@
       </c>
       <c r="D853" s="4"/>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A854" s="6"/>
       <c r="B854" s="8"/>
       <c r="C854" s="1" t="s">
@@ -7911,7 +8611,7 @@
       </c>
       <c r="D854" s="4"/>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A855" s="6"/>
       <c r="B855" s="8"/>
       <c r="C855" s="1" t="s">
@@ -7919,7 +8619,7 @@
       </c>
       <c r="D855" s="4"/>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A856" s="6"/>
       <c r="B856" s="8"/>
       <c r="C856" s="1" t="s">
@@ -7927,7 +8627,7 @@
       </c>
       <c r="D856" s="4"/>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A857" s="6"/>
       <c r="B857" s="8"/>
       <c r="C857" s="1" t="s">
@@ -7935,7 +8635,7 @@
       </c>
       <c r="D857" s="4"/>
     </row>
-    <row r="858" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A858" s="6"/>
       <c r="B858" s="9"/>
       <c r="C858" s="1" t="s">
@@ -7943,7 +8643,7 @@
       </c>
       <c r="D858" s="4"/>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A859" s="6"/>
       <c r="B859" s="7" t="s">
         <v>4</v>
@@ -7951,33 +8651,41 @@
       <c r="C859" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D859" s="3"/>
-    </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D859" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A860" s="6"/>
       <c r="B860" s="8"/>
       <c r="C860" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D860" s="4"/>
-    </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D860" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A861" s="6"/>
       <c r="B861" s="8"/>
       <c r="C861" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D861" s="4"/>
-    </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D861" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A862" s="6"/>
       <c r="B862" s="8"/>
       <c r="C862" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D862" s="4"/>
-    </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D862" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A863" s="6"/>
       <c r="B863" s="8"/>
       <c r="C863" s="1" t="s">
@@ -7985,55 +8693,67 @@
       </c>
       <c r="D863" s="4"/>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A864" s="6"/>
       <c r="B864" s="8"/>
       <c r="C864" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D864" s="4"/>
-    </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D864" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A865" s="6"/>
       <c r="B865" s="8"/>
       <c r="C865" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D865" s="4"/>
-    </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D865" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A866" s="6"/>
       <c r="B866" s="8"/>
       <c r="C866" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D866" s="4"/>
-    </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D866" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A867" s="6"/>
       <c r="B867" s="8"/>
       <c r="C867" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D867" s="4"/>
-    </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D867" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A868" s="6"/>
       <c r="B868" s="8"/>
       <c r="C868" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D868" s="4"/>
-    </row>
-    <row r="869" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D868" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A869" s="6"/>
       <c r="B869" s="9"/>
       <c r="C869" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D869" s="4"/>
-    </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D869" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A870" s="6"/>
       <c r="B870" s="7" t="s">
         <v>5</v>
@@ -8043,7 +8763,7 @@
       </c>
       <c r="D870" s="3"/>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A871" s="6"/>
       <c r="B871" s="8"/>
       <c r="C871" s="1" t="s">
@@ -8051,7 +8771,7 @@
       </c>
       <c r="D871" s="4"/>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A872" s="6"/>
       <c r="B872" s="8"/>
       <c r="C872" s="1" t="s">
@@ -8059,7 +8779,7 @@
       </c>
       <c r="D872" s="4"/>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A873" s="6"/>
       <c r="B873" s="8"/>
       <c r="C873" s="1" t="s">
@@ -8067,7 +8787,7 @@
       </c>
       <c r="D873" s="4"/>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A874" s="6"/>
       <c r="B874" s="8"/>
       <c r="C874" s="1" t="s">
@@ -8075,7 +8795,7 @@
       </c>
       <c r="D874" s="4"/>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A875" s="6"/>
       <c r="B875" s="8"/>
       <c r="C875" s="1" t="s">
@@ -8083,7 +8803,7 @@
       </c>
       <c r="D875" s="4"/>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A876" s="6"/>
       <c r="B876" s="8"/>
       <c r="C876" s="1" t="s">
@@ -8091,7 +8811,7 @@
       </c>
       <c r="D876" s="4"/>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A877" s="6"/>
       <c r="B877" s="8"/>
       <c r="C877" s="1" t="s">
@@ -8099,7 +8819,7 @@
       </c>
       <c r="D877" s="4"/>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A878" s="6"/>
       <c r="B878" s="8"/>
       <c r="C878" s="1" t="s">
@@ -8107,7 +8827,7 @@
       </c>
       <c r="D878" s="4"/>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A879" s="6"/>
       <c r="B879" s="8"/>
       <c r="C879" s="1" t="s">
@@ -8115,7 +8835,7 @@
       </c>
       <c r="D879" s="4"/>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A880" s="6"/>
       <c r="B880" s="9"/>
       <c r="C880" s="1" t="s">
@@ -8125,106 +8845,106 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A837:A880"/>
+    <mergeCell ref="B837:B847"/>
+    <mergeCell ref="B848:B858"/>
+    <mergeCell ref="B859:B869"/>
+    <mergeCell ref="B870:B880"/>
+    <mergeCell ref="A793:A836"/>
+    <mergeCell ref="B793:B803"/>
+    <mergeCell ref="B804:B814"/>
+    <mergeCell ref="B815:B825"/>
+    <mergeCell ref="B826:B836"/>
+    <mergeCell ref="A749:A792"/>
+    <mergeCell ref="B749:B759"/>
+    <mergeCell ref="B760:B770"/>
+    <mergeCell ref="B771:B781"/>
+    <mergeCell ref="B782:B792"/>
+    <mergeCell ref="A705:A748"/>
+    <mergeCell ref="B705:B715"/>
+    <mergeCell ref="B716:B726"/>
+    <mergeCell ref="B727:B737"/>
+    <mergeCell ref="B738:B748"/>
+    <mergeCell ref="A661:A704"/>
+    <mergeCell ref="B661:B671"/>
+    <mergeCell ref="B672:B682"/>
+    <mergeCell ref="B683:B693"/>
+    <mergeCell ref="B694:B704"/>
+    <mergeCell ref="A617:A660"/>
+    <mergeCell ref="B617:B627"/>
+    <mergeCell ref="B628:B638"/>
+    <mergeCell ref="B639:B649"/>
+    <mergeCell ref="B650:B660"/>
+    <mergeCell ref="A573:A616"/>
+    <mergeCell ref="B573:B583"/>
+    <mergeCell ref="B584:B594"/>
+    <mergeCell ref="B595:B605"/>
+    <mergeCell ref="B606:B616"/>
+    <mergeCell ref="A529:A572"/>
+    <mergeCell ref="B529:B539"/>
+    <mergeCell ref="B540:B550"/>
+    <mergeCell ref="B551:B561"/>
+    <mergeCell ref="B562:B572"/>
+    <mergeCell ref="A485:A528"/>
+    <mergeCell ref="B485:B495"/>
+    <mergeCell ref="B496:B506"/>
+    <mergeCell ref="B507:B517"/>
+    <mergeCell ref="B518:B528"/>
+    <mergeCell ref="A309:A352"/>
+    <mergeCell ref="B309:B319"/>
+    <mergeCell ref="B320:B330"/>
+    <mergeCell ref="B331:B341"/>
+    <mergeCell ref="B342:B352"/>
+    <mergeCell ref="A353:A396"/>
+    <mergeCell ref="B353:B363"/>
+    <mergeCell ref="B364:B374"/>
+    <mergeCell ref="B375:B385"/>
+    <mergeCell ref="B386:B396"/>
+    <mergeCell ref="A265:A308"/>
+    <mergeCell ref="B265:B275"/>
+    <mergeCell ref="B276:B286"/>
+    <mergeCell ref="B287:B297"/>
+    <mergeCell ref="B298:B308"/>
+    <mergeCell ref="A221:A264"/>
+    <mergeCell ref="B221:B231"/>
+    <mergeCell ref="B232:B242"/>
+    <mergeCell ref="B243:B253"/>
+    <mergeCell ref="B254:B264"/>
+    <mergeCell ref="A177:A220"/>
+    <mergeCell ref="B177:B187"/>
+    <mergeCell ref="B188:B198"/>
+    <mergeCell ref="B199:B209"/>
+    <mergeCell ref="B210:B220"/>
+    <mergeCell ref="A133:A176"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="B144:B154"/>
+    <mergeCell ref="B155:B165"/>
+    <mergeCell ref="B166:B176"/>
+    <mergeCell ref="A89:A132"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="B122:B132"/>
+    <mergeCell ref="A45:A88"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="B78:B88"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="A1:A44"/>
+    <mergeCell ref="B1:B11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="A397:A440"/>
+    <mergeCell ref="B397:B407"/>
+    <mergeCell ref="B408:B418"/>
+    <mergeCell ref="B419:B429"/>
+    <mergeCell ref="B430:B440"/>
     <mergeCell ref="A441:A484"/>
     <mergeCell ref="B441:B451"/>
     <mergeCell ref="B452:B462"/>
     <mergeCell ref="B463:B473"/>
     <mergeCell ref="B474:B484"/>
-    <mergeCell ref="A397:A440"/>
-    <mergeCell ref="B397:B407"/>
-    <mergeCell ref="B408:B418"/>
-    <mergeCell ref="B419:B429"/>
-    <mergeCell ref="B430:B440"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="A1:A44"/>
-    <mergeCell ref="B1:B11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="A45:A88"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="A89:A132"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B100:B110"/>
-    <mergeCell ref="B111:B121"/>
-    <mergeCell ref="B122:B132"/>
-    <mergeCell ref="A133:A176"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="B144:B154"/>
-    <mergeCell ref="B155:B165"/>
-    <mergeCell ref="B166:B176"/>
-    <mergeCell ref="A177:A220"/>
-    <mergeCell ref="B177:B187"/>
-    <mergeCell ref="B188:B198"/>
-    <mergeCell ref="B199:B209"/>
-    <mergeCell ref="B210:B220"/>
-    <mergeCell ref="A221:A264"/>
-    <mergeCell ref="B221:B231"/>
-    <mergeCell ref="B232:B242"/>
-    <mergeCell ref="B243:B253"/>
-    <mergeCell ref="B254:B264"/>
-    <mergeCell ref="A265:A308"/>
-    <mergeCell ref="B265:B275"/>
-    <mergeCell ref="B276:B286"/>
-    <mergeCell ref="B287:B297"/>
-    <mergeCell ref="B298:B308"/>
-    <mergeCell ref="A353:A396"/>
-    <mergeCell ref="B353:B363"/>
-    <mergeCell ref="B364:B374"/>
-    <mergeCell ref="B375:B385"/>
-    <mergeCell ref="B386:B396"/>
-    <mergeCell ref="A309:A352"/>
-    <mergeCell ref="B309:B319"/>
-    <mergeCell ref="B320:B330"/>
-    <mergeCell ref="B331:B341"/>
-    <mergeCell ref="B342:B352"/>
-    <mergeCell ref="A485:A528"/>
-    <mergeCell ref="B485:B495"/>
-    <mergeCell ref="B496:B506"/>
-    <mergeCell ref="B507:B517"/>
-    <mergeCell ref="B518:B528"/>
-    <mergeCell ref="A529:A572"/>
-    <mergeCell ref="B529:B539"/>
-    <mergeCell ref="B540:B550"/>
-    <mergeCell ref="B551:B561"/>
-    <mergeCell ref="B562:B572"/>
-    <mergeCell ref="A573:A616"/>
-    <mergeCell ref="B573:B583"/>
-    <mergeCell ref="B584:B594"/>
-    <mergeCell ref="B595:B605"/>
-    <mergeCell ref="B606:B616"/>
-    <mergeCell ref="A617:A660"/>
-    <mergeCell ref="B617:B627"/>
-    <mergeCell ref="B628:B638"/>
-    <mergeCell ref="B639:B649"/>
-    <mergeCell ref="B650:B660"/>
-    <mergeCell ref="A661:A704"/>
-    <mergeCell ref="B661:B671"/>
-    <mergeCell ref="B672:B682"/>
-    <mergeCell ref="B683:B693"/>
-    <mergeCell ref="B694:B704"/>
-    <mergeCell ref="A705:A748"/>
-    <mergeCell ref="B705:B715"/>
-    <mergeCell ref="B716:B726"/>
-    <mergeCell ref="B727:B737"/>
-    <mergeCell ref="B738:B748"/>
-    <mergeCell ref="A749:A792"/>
-    <mergeCell ref="B749:B759"/>
-    <mergeCell ref="B760:B770"/>
-    <mergeCell ref="B771:B781"/>
-    <mergeCell ref="B782:B792"/>
-    <mergeCell ref="A793:A836"/>
-    <mergeCell ref="B793:B803"/>
-    <mergeCell ref="B804:B814"/>
-    <mergeCell ref="B815:B825"/>
-    <mergeCell ref="B826:B836"/>
-    <mergeCell ref="A837:A880"/>
-    <mergeCell ref="B837:B847"/>
-    <mergeCell ref="B848:B858"/>
-    <mergeCell ref="B859:B869"/>
-    <mergeCell ref="B870:B880"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
